--- a/examples/3_optimizations_under_range_speed_sweep/validation.xlsx
+++ b/examples/3_optimizations_under_range_speed_sweep/validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/examples/3_optimizations_under_range_speed_sweep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2D1931-3FB7-BF48-8390-E940E3893373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D323BAE6-4AB5-9E42-93D7-C7C01930F699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" firstSheet="1" activeTab="2" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" firstSheet="1" activeTab="3" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor_opt_weight" sheetId="16" r:id="rId1"/>
@@ -854,26 +854,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4588,13 +4588,13 @@
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>624.84</c:v>
+                  <c:v>625.05999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>338.93</c:v>
+                  <c:v>338.81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>663.16</c:v>
+                  <c:v>663.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>113</c:v>
@@ -5098,7 +5098,7 @@
                   <c:v>25.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.7</c:v>
+                  <c:v>26.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.48</c:v>
@@ -10289,7 +10289,7 @@
   <dimension ref="B1:AO56"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10333,11 +10333,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -10348,26 +10348,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="F3" s="32" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="F3" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="J3" s="30" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="J3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
       <c r="U3" s="7" t="s">
         <v>41</v>
       </c>
@@ -10611,14 +10611,14 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>-1285.4992606156195</v>
       </c>
       <c r="AI5" s="3">
         <v>10000</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5"/>
         <v>1620.2382655198489</v>
       </c>
       <c r="AK5" s="2">
@@ -10767,11 +10767,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
       <c r="N7" s="6" t="s">
         <v>159</v>
       </c>
@@ -11203,11 +11203,11 @@
       <c r="H11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
       <c r="U11" s="2">
         <v>7</v>
       </c>
@@ -11285,11 +11285,11 @@
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="F12" s="24" t="s">
         <v>82</v>
       </c>
@@ -11310,11 +11310,11 @@
       <c r="L12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
       <c r="U12" s="2">
         <v>8</v>
       </c>
@@ -11509,11 +11509,11 @@
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="J14" s="12" t="s">
         <v>126</v>
       </c>
@@ -11731,11 +11731,11 @@
       <c r="L16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
       <c r="U16" s="2">
         <v>12</v>
       </c>
@@ -11813,11 +11813,11 @@
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="F17" s="6" t="s">
         <v>124</v>
       </c>
@@ -12579,16 +12579,16 @@
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="F24" s="32" t="s">
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="F24" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
       <c r="J24" s="15" t="s">
         <v>65</v>
       </c>
@@ -13123,11 +13123,11 @@
       </c>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
       <c r="F29" t="s">
         <v>97</v>
       </c>
@@ -13231,11 +13231,11 @@
       <c r="H30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -13521,11 +13521,11 @@
         <v>0.80011066800000008</v>
       </c>
       <c r="D33"/>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
       <c r="J33" s="19" t="s">
         <v>78</v>
       </c>
@@ -13710,11 +13710,11 @@
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
       <c r="F35" s="26" t="s">
         <v>132</v>
       </c>
@@ -13880,11 +13880,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="J38" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -13971,11 +13971,11 @@
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
       <c r="J40" s="11" t="s">
         <v>52</v>
       </c>
@@ -14280,16 +14280,16 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="J46" s="30" t="s">
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="J46" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
       <c r="N46" s="6" t="s">
         <v>153</v>
       </c>
@@ -14393,11 +14393,11 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
@@ -14433,17 +14433,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:H24"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="J38:L38"/>
@@ -14456,6 +14445,17 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="F33:H33"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="FALSE">
@@ -14487,7 +14487,7 @@
   <dimension ref="B1:AO56"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14531,11 +14531,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -14546,26 +14546,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="F3" s="32" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="F3" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="J3" s="30" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="J3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
       <c r="U3" s="7" t="s">
         <v>41</v>
       </c>
@@ -14809,14 +14809,14 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
         <v>-1348.5827003913391</v>
       </c>
       <c r="AI5" s="3">
         <v>10000</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>2228.5531316525849</v>
       </c>
       <c r="AK5" s="2">
@@ -14965,11 +14965,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
       <c r="N7" s="6" t="s">
         <v>159</v>
       </c>
@@ -15401,11 +15401,11 @@
       <c r="H11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
       <c r="U11" s="2">
         <v>7</v>
       </c>
@@ -15483,11 +15483,11 @@
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="F12" s="24" t="s">
         <v>82</v>
       </c>
@@ -15508,11 +15508,11 @@
       <c r="L12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
       <c r="U12" s="2">
         <v>8</v>
       </c>
@@ -15707,11 +15707,11 @@
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="J14" s="12" t="s">
         <v>126</v>
       </c>
@@ -15929,11 +15929,11 @@
       <c r="L16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
       <c r="U16" s="2">
         <v>12</v>
       </c>
@@ -16011,11 +16011,11 @@
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="F17" s="6" t="s">
         <v>124</v>
       </c>
@@ -16777,16 +16777,16 @@
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="F24" s="32" t="s">
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="F24" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
       <c r="J24" s="15" t="s">
         <v>65</v>
       </c>
@@ -17321,11 +17321,11 @@
       </c>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
       <c r="F29" t="s">
         <v>97</v>
       </c>
@@ -17429,11 +17429,11 @@
       <c r="H30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -17719,11 +17719,11 @@
         <v>0.80011066800000008</v>
       </c>
       <c r="D33"/>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
       <c r="J33" s="19" t="s">
         <v>78</v>
       </c>
@@ -17908,11 +17908,11 @@
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
       <c r="F35" s="26" t="s">
         <v>132</v>
       </c>
@@ -18078,11 +18078,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="J38" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -18169,11 +18169,11 @@
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
       <c r="J40" s="11" t="s">
         <v>52</v>
       </c>
@@ -18478,16 +18478,16 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="J46" s="30" t="s">
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="J46" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
       <c r="N46" s="6" t="s">
         <v>153</v>
       </c>
@@ -18591,11 +18591,11 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
@@ -18631,17 +18631,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:H24"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="J38:L38"/>
@@ -18654,6 +18643,17 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="F33:H33"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="FALSE">
@@ -18684,8 +18684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921C3698-4BD1-224F-813F-4E4531A991C5}">
   <dimension ref="B1:AO81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18726,11 +18726,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -18741,26 +18741,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="F3" s="32" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="F3" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="J3" s="30" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="J3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
       <c r="U3" s="7" t="s">
         <v>41</v>
       </c>
@@ -18844,7 +18844,7 @@
       </c>
       <c r="K4" s="6">
         <f>(1+$C$25/100)*MAX(G10,G29)</f>
-        <v>511.50711417584205</v>
+        <v>511.5083213961687</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>101</v>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="O4" s="6">
         <f xml:space="preserve"> $C$5 * $C$74</f>
-        <v>21598.642476238292</v>
+        <v>21598.641725779322</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>20</v>
@@ -18867,14 +18867,14 @@
       </c>
       <c r="W4" s="2">
         <f t="shared" ref="W4:W34" si="0" xml:space="preserve"> $O$22 * TAN($O$19/180*PI()) + $O$23 / (2 * SQRT($O$22^2 + V4^2)) - V4</f>
-        <v>1.1826055629763939</v>
+        <v>1.1826236689718819</v>
       </c>
       <c r="X4" s="3">
         <v>1</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" ref="Y4:Y34" si="1" xml:space="preserve"> $O$22 * TAN($O$19/180*PI()) + $O$23 / (2 * SQRT($O$22^2 + X4^2)) - X4</f>
-        <v>-2.9518428776553418E-2</v>
+        <v>-2.9516848075921476E-2</v>
       </c>
       <c r="Z4" s="2">
         <f xml:space="preserve"> (V4 + X4)/2</f>
@@ -18882,15 +18882,15 @@
       </c>
       <c r="AA4" s="2">
         <f t="shared" ref="AA4:AA34" si="2" xml:space="preserve"> $O$22 * TAN($O$19/180*PI()) + $O$23 / (2 * SQRT($O$22^2 + Z4^2)) - Z4</f>
-        <v>0.48927663936644128</v>
+        <v>0.48927968601265914</v>
       </c>
       <c r="AB4" s="2">
         <f>W4*AA4</f>
-        <v>0.57862127554914833</v>
+        <v>0.57863373742570134</v>
       </c>
       <c r="AC4" s="2">
         <f>Y4*AA4</f>
-        <v>-1.4442677631169709E-2</v>
+        <v>-1.4441994158670222E-2</v>
       </c>
       <c r="AD4" s="2">
         <f>X4-V4</f>
@@ -18901,15 +18901,15 @@
       </c>
       <c r="AH4" s="2">
         <f>K30</f>
-        <v>-6.3083110258048691E-3</v>
+        <v>-6.3441867507663119E-3</v>
       </c>
       <c r="AJ4" s="2">
         <f>K30</f>
-        <v>-6.3083110258048691E-3</v>
+        <v>-6.3441867507663119E-3</v>
       </c>
       <c r="AL4" s="2">
         <f>K30</f>
-        <v>-6.3083110258048691E-3</v>
+        <v>-6.3441867507663119E-3</v>
       </c>
     </row>
     <row r="5" spans="2:41" x14ac:dyDescent="0.2">
@@ -18917,7 +18917,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="10">
-        <v>2203.8186019981399</v>
+        <v>2203.8185254250202</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>7</v>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="K5" s="6">
         <f>K4/$C$21</f>
-        <v>63.938389271980256</v>
+        <v>63.938540174521087</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>101</v>
@@ -18961,7 +18961,7 @@
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>0.48927663936644128</v>
+        <v>0.48927968601265914</v>
       </c>
       <c r="X5" s="2">
         <f>IF(AC4&gt;0, Z4, X4)</f>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9518428776553418E-2</v>
+        <v>-2.9516848075921476E-2</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" ref="Z5:Z34" si="3" xml:space="preserve"> (V5 + X5)/2</f>
@@ -18977,15 +18977,15 @@
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="2"/>
-        <v>0.22680840362796395</v>
+        <v>0.22681047780885055</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" ref="AB5:AB34" si="4">W5*AA5</f>
-        <v>0.11097205350715757</v>
+        <v>0.1109737593666956</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" ref="AC5:AC34" si="5">Y5*AA5</f>
-        <v>-6.6950277084158339E-3</v>
+        <v>-6.6947304155110009E-3</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" ref="AD5:AD34" si="6">X5-V5</f>
@@ -18998,15 +18998,15 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
-        <v>-905.49565288510905</v>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <v>-905.49456400881081</v>
       </c>
       <c r="AI5" s="3">
         <v>10000</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5" ca="1"/>
-        <v>3012.5902982662137</v>
+        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5"/>
+        <v>3012.5846678822736</v>
       </c>
       <c r="AK5" s="2">
         <f>(AG5+AI5)/2</f>
@@ -19014,15 +19014,15 @@
       </c>
       <c r="AL5" s="2">
         <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5" ca="1"/>
-        <v>981.17022870042911</v>
+        <v>981.16254907089615</v>
       </c>
       <c r="AM5" s="2">
         <f>AH5*AL5</f>
-        <v>-888445.37682852685</v>
+        <v>-888437.35459272459</v>
       </c>
       <c r="AN5" s="2">
         <f>AJ5*AL5</f>
-        <v>2955863.911930555</v>
+        <v>2955835.2520312709</v>
       </c>
       <c r="AO5" s="2">
         <f>AI5-AG5</f>
@@ -19034,7 +19034,7 @@
         <v>163</v>
       </c>
       <c r="C6" s="17">
-        <v>408.02715008490799</v>
+        <v>408.04282016088598</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>125</v>
@@ -19054,7 +19054,7 @@
       </c>
       <c r="K6" s="6">
         <f>(1+$C$32/100)*MAX(G20)</f>
-        <v>171.09798217246964</v>
+        <v>171.09812541578356</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>101</v>
@@ -19064,7 +19064,7 @@
       </c>
       <c r="O6" s="6">
         <f xml:space="preserve"> ($C$21+$C$28) * 0.4 * ($C$5/($C$21+$C$28) *2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.2217398816886112</v>
+        <v>0.22173987655227964</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>115</v>
@@ -19078,7 +19078,7 @@
       </c>
       <c r="W6" s="2">
         <f t="shared" si="0"/>
-        <v>0.22680840362796395</v>
+        <v>0.22681047780885055</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" ref="X6:X34" si="8">IF(AC5&gt;0, Z5, X5)</f>
@@ -19086,7 +19086,7 @@
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9518428776553418E-2</v>
+        <v>-2.9516848075921476E-2</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="3"/>
@@ -19094,15 +19094,15 @@
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="2"/>
-        <v>9.8199231930238939E-2</v>
+        <v>9.8201024604044007E-2</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="4"/>
-        <v>2.2272411031589678E-2</v>
+        <v>2.2273021311761912E-2</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="5"/>
-        <v>-2.8986870336450083E-3</v>
+        <v>-2.8985847241373938E-3</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="6"/>
@@ -19116,29 +19116,29 @@
         <v>500</v>
       </c>
       <c r="AH6" s="2">
-        <v>-905.49565288510905</v>
+        <v>-905.49456400881081</v>
       </c>
       <c r="AI6" s="2">
         <f>IF(AN5&gt;0,AK5,AI5)</f>
         <v>5250</v>
       </c>
       <c r="AJ6" s="2">
-        <v>981.17022870042911</v>
+        <v>981.16254907089615</v>
       </c>
       <c r="AK6" s="2">
         <f t="shared" ref="AK6:AK44" si="9">(AG6+AI6)/2</f>
         <v>2875</v>
       </c>
       <c r="AL6" s="2">
-        <v>288.34224098633968</v>
+        <v>288.34121079925785</v>
       </c>
       <c r="AM6" s="2">
         <f t="shared" ref="AM6:AM44" si="10">AH6*AL6</f>
-        <v>-261092.6457562811</v>
+        <v>-261091.3989584466</v>
       </c>
       <c r="AN6" s="2">
         <f t="shared" ref="AN6:AN44" si="11">AJ6*AL6</f>
-        <v>282912.82253256114</v>
+        <v>282909.59738998843</v>
       </c>
       <c r="AO6" s="2">
         <f t="shared" ref="AO6:AO44" si="12">AI6-AG6</f>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="G7" s="6">
         <f xml:space="preserve"> $C$5 * $C$68 / $C$21</f>
-        <v>2700.0885771417652</v>
+        <v>2700.0884833254204</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>20</v>
@@ -19171,7 +19171,7 @@
       </c>
       <c r="K7" s="6">
         <f>K6/$C$28</f>
-        <v>171.09798217246964</v>
+        <v>171.09812541578356</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>101</v>
@@ -19191,7 +19191,7 @@
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>9.8199231930238939E-2</v>
+        <v>9.8201024604044007E-2</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="8"/>
@@ -19199,7 +19199,7 @@
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9518428776553418E-2</v>
+        <v>-2.9516848075921476E-2</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="3"/>
@@ -19207,15 +19207,15 @@
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="2"/>
-        <v>3.4250878557192665E-2</v>
+        <v>3.425255826194662E-2</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="4"/>
-        <v>3.3634099672522101E-3</v>
+        <v>3.3636363166328707E-3</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="5"/>
-        <v>-1.0110321192248724E-3</v>
+        <v>-1.0110275584295273E-3</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="6"/>
@@ -19229,29 +19229,29 @@
         <v>500</v>
       </c>
       <c r="AH7" s="2">
-        <v>-905.49565288510905</v>
+        <v>-905.49456400881081</v>
       </c>
       <c r="AI7" s="2">
         <f t="shared" ref="AI7:AI44" si="14">IF(AN6&gt;0,AK6,AI6)</f>
         <v>2875</v>
       </c>
       <c r="AJ7" s="2">
-        <v>288.34224098633968</v>
+        <v>288.34121079925785</v>
       </c>
       <c r="AK7" s="2">
         <f t="shared" si="9"/>
         <v>1687.5</v>
       </c>
       <c r="AL7" s="2">
-        <v>-249.39590737763683</v>
+        <v>-249.39533552565831</v>
       </c>
       <c r="AM7" s="2">
         <f t="shared" si="10"/>
-        <v>225826.90997778744</v>
+        <v>225826.12060763707</v>
       </c>
       <c r="AN7" s="2">
         <f t="shared" si="11"/>
-        <v>-71911.374826089406</v>
+        <v>-71910.953013155478</v>
       </c>
       <c r="AO7" s="2">
         <f t="shared" si="12"/>
@@ -19263,7 +19263,7 @@
         <v>95</v>
       </c>
       <c r="C8" s="17">
-        <v>1.93737516333138</v>
+        <v>1.93736985632851</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="G8" s="6">
         <f>G10/$C$21</f>
-        <v>42.625592847986837</v>
+        <v>42.625693449680725</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>18</v>
@@ -19293,7 +19293,7 @@
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>3.4250878557192665E-2</v>
+        <v>3.425255826194662E-2</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="8"/>
@@ -19301,7 +19301,7 @@
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9518428776553418E-2</v>
+        <v>-2.9516848075921476E-2</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="3"/>
@@ -19309,15 +19309,15 @@
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="2"/>
-        <v>2.3459773468834655E-3</v>
+        <v>2.3476059703371188E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="4"/>
-        <v>8.0351785206030625E-5</v>
+        <v>8.0411510275065894E-5</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="5"/>
-        <v>-6.9249565225387328E-5</v>
+        <v>-6.9293928768566953E-5</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="6"/>
@@ -19331,29 +19331,29 @@
         <v>1687.5</v>
       </c>
       <c r="AH8" s="2">
-        <v>-249.39590737763683</v>
+        <v>-249.39533552565831</v>
       </c>
       <c r="AI8" s="2">
         <f t="shared" si="14"/>
         <v>2875</v>
       </c>
       <c r="AJ8" s="2">
-        <v>288.34224098633968</v>
+        <v>288.34121079925785</v>
       </c>
       <c r="AK8" s="2">
         <f t="shared" si="9"/>
         <v>2281.25</v>
       </c>
       <c r="AL8" s="2">
-        <v>35.334238535280065</v>
+        <v>35.334134940735112</v>
       </c>
       <c r="AM8" s="2">
         <f t="shared" si="10"/>
-        <v>-8812.2144810040336</v>
+        <v>-8812.1684390535193</v>
       </c>
       <c r="AN8" s="2">
         <f t="shared" si="11"/>
-        <v>10188.353522808535</v>
+        <v>10188.287251355925</v>
       </c>
       <c r="AO8" s="2">
         <f t="shared" si="12"/>
@@ -19376,16 +19376,16 @@
       </c>
       <c r="G9" s="6">
         <f xml:space="preserve"> (G7/$C$68*1000) / (G8*1000)</f>
-        <v>6.4627212630727788</v>
+        <v>6.4627057857328749</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
       <c r="N9" s="6" t="s">
         <v>168</v>
       </c>
@@ -19402,7 +19402,7 @@
       </c>
       <c r="W9" s="2">
         <f t="shared" si="0"/>
-        <v>2.3459773468834655E-3</v>
+        <v>2.3476059703371188E-3</v>
       </c>
       <c r="X9" s="2">
         <f t="shared" si="8"/>
@@ -19410,7 +19410,7 @@
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9518428776553418E-2</v>
+        <v>-2.9516848075921476E-2</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="3"/>
@@ -19418,15 +19418,15 @@
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3591050029787666E-2</v>
+        <v>-1.3589445744025541E-2</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="4"/>
-        <v>-3.1884295490241713E-5</v>
+        <v>-3.1902663962246708E-5</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="5"/>
-        <v>4.0118644230286143E-4</v>
+        <v>4.011176054623796E-4</v>
       </c>
       <c r="AD9" s="2">
         <f t="shared" si="6"/>
@@ -19440,29 +19440,29 @@
         <v>1687.5</v>
       </c>
       <c r="AH9" s="2">
-        <v>-249.39590737763683</v>
+        <v>-249.39533552565831</v>
       </c>
       <c r="AI9" s="2">
         <f t="shared" si="14"/>
         <v>2281.25</v>
       </c>
       <c r="AJ9" s="2">
-        <v>35.334238535280065</v>
+        <v>35.334134940735112</v>
       </c>
       <c r="AK9" s="2">
         <f t="shared" si="9"/>
         <v>1984.375</v>
       </c>
       <c r="AL9" s="2">
-        <v>-103.09139222870886</v>
+        <v>-103.09112534747237</v>
       </c>
       <c r="AM9" s="2">
         <f t="shared" si="10"/>
-        <v>25710.571307702703</v>
+        <v>25710.445795750569</v>
       </c>
       <c r="AN9" s="2">
         <f t="shared" si="11"/>
-        <v>-3642.6558439433161</v>
+        <v>-3642.6357342198266</v>
       </c>
       <c r="AO9" s="2">
         <f t="shared" si="12"/>
@@ -19474,7 +19474,7 @@
         <v>169</v>
       </c>
       <c r="C10" s="17">
-        <v>1.6434187843419901</v>
+        <v>1.6433555265161</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
@@ -19484,7 +19484,7 @@
       </c>
       <c r="G10" s="25">
         <f xml:space="preserve"> 1/1000 * (($C$5*$C$68)/$C$24 * ( ($G$4/2) + SQRT( ($G$4/2)^2 + ($C$5*$C$68) / (2*$C$65*PI()*$C$8^2 * $C$21) ) ) )</f>
-        <v>341.0047427838947</v>
+        <v>341.0055475974458</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>101</v>
@@ -19494,7 +19494,7 @@
       </c>
       <c r="K10" s="6">
         <f xml:space="preserve"> $C$18 * (G10*G6 + G20*G13 + G29*G25 + G33*G32)/3600</f>
-        <v>113.42998873321245</v>
+        <v>113.43013206876513</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>102</v>
@@ -19518,7 +19518,7 @@
       </c>
       <c r="W10" s="2">
         <f t="shared" si="0"/>
-        <v>2.3459773468834655E-3</v>
+        <v>2.3476059703371188E-3</v>
       </c>
       <c r="X10" s="2">
         <f t="shared" si="8"/>
@@ -19526,7 +19526,7 @@
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="1"/>
-        <v>-1.3591050029787666E-2</v>
+        <v>-1.3589445744025541E-2</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="3"/>
@@ -19534,15 +19534,15 @@
       </c>
       <c r="AA10" s="2">
         <f t="shared" si="2"/>
-        <v>-5.623770950310969E-3</v>
+        <v>-5.6221545919984406E-3</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="4"/>
-        <v>-1.3193239253490833E-5</v>
+        <v>-1.3198603686333788E-5</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="5"/>
-        <v>7.6432952341742903E-5</v>
+        <v>7.6401964792486857E-5</v>
       </c>
       <c r="AD10" s="2">
         <f t="shared" si="6"/>
@@ -19556,29 +19556,29 @@
         <v>1984.375</v>
       </c>
       <c r="AH10" s="2">
-        <v>-103.09139222870886</v>
+        <v>-103.09112534747237</v>
       </c>
       <c r="AI10" s="2">
         <f t="shared" si="14"/>
         <v>2281.25</v>
       </c>
       <c r="AJ10" s="2">
-        <v>35.334238535280065</v>
+        <v>35.334134940735112</v>
       </c>
       <c r="AK10" s="2">
         <f t="shared" si="9"/>
         <v>2132.8125</v>
       </c>
       <c r="AL10" s="2">
-        <v>-32.88862571742834</v>
+        <v>-32.888536486550493</v>
       </c>
       <c r="AM10" s="2">
         <f t="shared" si="10"/>
-        <v>3390.534213698606</v>
+        <v>3390.5162374298952</v>
       </c>
       <c r="AN10" s="2">
         <f t="shared" si="11"/>
-        <v>-1162.0945461971594</v>
+        <v>-1162.0879862190654</v>
       </c>
       <c r="AO10" s="2">
         <f t="shared" si="12"/>
@@ -19611,7 +19611,7 @@
       </c>
       <c r="O11" s="6">
         <f xml:space="preserve"> 1.78 * (1 - 0.045 * $C$13^0.68) - 0.64</f>
-        <v>0.8473286410074955</v>
+        <v>0.84732958056973107</v>
       </c>
       <c r="U11" s="2">
         <v>7</v>
@@ -19622,7 +19622,7 @@
       </c>
       <c r="W11" s="2">
         <f t="shared" si="0"/>
-        <v>2.3459773468834655E-3</v>
+        <v>2.3476059703371188E-3</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" si="8"/>
@@ -19630,7 +19630,7 @@
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="1"/>
-        <v>-5.623770950310969E-3</v>
+        <v>-5.6221545919984406E-3</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="3"/>
@@ -19638,15 +19638,15 @@
       </c>
       <c r="AA11" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6392091186326896E-3</v>
+        <v>-1.6375866521092242E-3</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="4"/>
-        <v>-3.8455474591171008E-6</v>
+        <v>-3.8444082014359886E-6</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="5"/>
-        <v>9.2185366228513664E-6</v>
+        <v>9.2067653159512266E-6</v>
       </c>
       <c r="AD11" s="2">
         <f t="shared" si="6"/>
@@ -19660,29 +19660,29 @@
         <v>2132.8125</v>
       </c>
       <c r="AH11" s="2">
-        <v>-32.88862571742834</v>
+        <v>-32.888536486550493</v>
       </c>
       <c r="AI11" s="2">
         <f t="shared" si="14"/>
         <v>2281.25</v>
       </c>
       <c r="AJ11" s="2">
-        <v>35.334238535280065</v>
+        <v>35.334134940735112</v>
       </c>
       <c r="AK11" s="2">
         <f t="shared" si="9"/>
         <v>2207.03125</v>
       </c>
       <c r="AL11" s="2">
-        <v>1.4707159482245515</v>
+        <v>1.4707107859644566</v>
       </c>
       <c r="AM11" s="2">
         <f t="shared" si="10"/>
-        <v>-48.369826357809991</v>
+        <v>-48.369525345355385</v>
       </c>
       <c r="AN11" s="2">
         <f t="shared" si="11"/>
-        <v>51.966628132206907</v>
+        <v>51.966293370062701</v>
       </c>
       <c r="AO11" s="2">
         <f t="shared" si="12"/>
@@ -19699,17 +19699,17 @@
       <c r="D12" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
       <c r="N12" s="6" t="s">
         <v>175</v>
       </c>
       <c r="O12" s="6">
         <f xml:space="preserve"> O4 / (O5 * $C$12)</f>
-        <v>0.31751543454940429</v>
+        <v>0.3175154235171227</v>
       </c>
       <c r="U12" s="2">
         <v>8</v>
@@ -19720,7 +19720,7 @@
       </c>
       <c r="W12" s="2">
         <f t="shared" si="0"/>
-        <v>2.3459773468834655E-3</v>
+        <v>2.3476059703371188E-3</v>
       </c>
       <c r="X12" s="2">
         <f t="shared" si="8"/>
@@ -19728,7 +19728,7 @@
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6392091186326896E-3</v>
+        <v>-1.6375866521092242E-3</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="3"/>
@@ -19736,15 +19736,15 @@
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="2"/>
-        <v>3.5330557047363875E-4</v>
+        <v>3.5493110933604299E-4</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="4"/>
-        <v>8.2884686485889625E-7</v>
+        <v>8.3323839133567127E-7</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="5"/>
-        <v>-5.7914171278411301E-7</v>
+        <v>-5.8123044706702366E-7</v>
       </c>
       <c r="AD12" s="2">
         <f t="shared" si="6"/>
@@ -19758,29 +19758,29 @@
         <v>2132.8125</v>
       </c>
       <c r="AH12" s="2">
-        <v>-32.88862571742834</v>
+        <v>-32.888536486550493</v>
       </c>
       <c r="AI12" s="2">
         <f t="shared" si="14"/>
         <v>2207.03125</v>
       </c>
       <c r="AJ12" s="2">
-        <v>1.4707159482245515</v>
+        <v>1.4707107859644566</v>
       </c>
       <c r="AK12" s="2">
         <f t="shared" si="9"/>
         <v>2169.921875</v>
       </c>
       <c r="AL12" s="2">
-        <v>-15.647023110732789</v>
+        <v>-15.646980346981763</v>
       </c>
       <c r="AM12" s="2">
         <f t="shared" si="10"/>
-        <v>514.60908668084198</v>
+        <v>514.60628404604824</v>
       </c>
       <c r="AN12" s="2">
         <f t="shared" si="11"/>
-        <v>-23.012326431192847</v>
+        <v>-23.012182764079956</v>
       </c>
       <c r="AO12" s="2">
         <f t="shared" si="12"/>
@@ -19792,7 +19792,7 @@
         <v>176</v>
       </c>
       <c r="C13" s="17">
-        <v>6.7231091013048596</v>
+        <v>6.7230773613542496</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>89</v>
@@ -19814,7 +19814,7 @@
       </c>
       <c r="O13" s="6">
         <f xml:space="preserve"> O9 + O12^2 / ( PI() * O11 * $C$13 )</f>
-        <v>2.3883714022802843E-2</v>
+        <v>2.3883733979643933E-2</v>
       </c>
       <c r="U13" s="2">
         <v>9</v>
@@ -19825,7 +19825,7 @@
       </c>
       <c r="W13" s="2">
         <f t="shared" si="0"/>
-        <v>3.5330557047363875E-4</v>
+        <v>3.5493110933604299E-4</v>
       </c>
       <c r="X13" s="2">
         <f t="shared" si="8"/>
@@ -19833,7 +19833,7 @@
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6392091186326896E-3</v>
+        <v>-1.6375866521092242E-3</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="3"/>
@@ -19841,15 +19841,15 @@
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="2"/>
-        <v>-6.4297135165336528E-4</v>
+        <v>-6.4134735048737568E-4</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="4"/>
-        <v>-2.2716536019409881E-7</v>
+        <v>-2.2763412657821623E-7</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="5"/>
-        <v>1.053964502649782E-6</v>
+        <v>1.0502618605237428E-6</v>
       </c>
       <c r="AD13" s="2">
         <f t="shared" si="6"/>
@@ -19863,29 +19863,29 @@
         <v>2169.921875</v>
       </c>
       <c r="AH13" s="2">
-        <v>-15.647023110732789</v>
+        <v>-15.646980346981763</v>
       </c>
       <c r="AI13" s="2">
         <f t="shared" si="14"/>
         <v>2207.03125</v>
       </c>
       <c r="AJ13" s="2">
-        <v>1.4707159482245515</v>
+        <v>1.4707107859644566</v>
       </c>
       <c r="AK13" s="2">
         <f t="shared" si="9"/>
         <v>2188.4765625</v>
       </c>
       <c r="AL13" s="2">
-        <v>-7.0726646938978774</v>
+        <v>-7.0726454871314672</v>
       </c>
       <c r="AM13" s="2">
         <f t="shared" si="10"/>
-        <v>110.66614791988394</v>
+        <v>110.66554493831534</v>
       </c>
       <c r="AN13" s="2">
         <f t="shared" si="11"/>
-        <v>-10.401880761760324</v>
+        <v>-10.401816003227086</v>
       </c>
       <c r="AO13" s="2">
         <f t="shared" si="12"/>
@@ -19898,7 +19898,7 @@
       </c>
       <c r="G14" s="6">
         <f>O21*$C$10</f>
-        <v>70.22082484989572</v>
+        <v>70.22081862907531</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>10</v>
@@ -19908,7 +19908,7 @@
       </c>
       <c r="K14" s="18">
         <f>C5</f>
-        <v>2203.8186019981399</v>
+        <v>2203.8185254250202</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>7</v>
@@ -19918,7 +19918,7 @@
       </c>
       <c r="O14" s="6">
         <f xml:space="preserve"> O5 * O13 * $C$12</f>
-        <v>1624.663698365732</v>
+        <v>1624.6650559081652</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>20</v>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="W14" s="2">
         <f t="shared" si="0"/>
-        <v>3.5330557047363875E-4</v>
+        <v>3.5493110933604299E-4</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="8"/>
@@ -19940,7 +19940,7 @@
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>-6.4297135165336528E-4</v>
+        <v>-6.4134735048737568E-4</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="3"/>
@@ -19948,15 +19948,15 @@
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4483779225771265E-4</v>
+        <v>-1.4321302262587654E-4</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="4"/>
-        <v>-5.1171998819753546E-8</v>
+        <v>-5.0830756991970186E-8</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="5"/>
-        <v>9.3126551058430831E-8</v>
+        <v>9.1849292616394509E-8</v>
       </c>
       <c r="AD14" s="2">
         <f t="shared" si="6"/>
@@ -19970,29 +19970,29 @@
         <v>2188.4765625</v>
       </c>
       <c r="AH14" s="2">
-        <v>-7.0726646938978774</v>
+        <v>-7.0726454871314672</v>
       </c>
       <c r="AI14" s="2">
         <f t="shared" si="14"/>
         <v>2207.03125</v>
       </c>
       <c r="AJ14" s="2">
-        <v>1.4707159482245515</v>
+        <v>1.4707107859644566</v>
       </c>
       <c r="AK14" s="2">
         <f t="shared" si="9"/>
         <v>2197.75390625</v>
       </c>
       <c r="AL14" s="2">
-        <v>-2.7971015676966999</v>
+        <v>-2.7970942197923705</v>
       </c>
       <c r="AM14" s="2">
         <f t="shared" si="10"/>
-        <v>19.782961503094853</v>
+        <v>19.78285581069602</v>
       </c>
       <c r="AN14" s="2">
         <f t="shared" si="11"/>
-        <v>-4.1137418844154316</v>
+        <v>-4.1137166384074755</v>
       </c>
       <c r="AO14" s="2">
         <f t="shared" si="12"/>
@@ -20000,17 +20000,17 @@
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
       <c r="F15" s="6" t="s">
         <v>179</v>
       </c>
       <c r="G15" s="6">
         <f>G14/$C$73</f>
-        <v>0.21104969662049849</v>
+        <v>0.2110496779237335</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>122</v>
@@ -20020,7 +20020,7 @@
       </c>
       <c r="K15" s="6">
         <f xml:space="preserve"> 1000 * K10 / ($C$60 * $C$61 * $C$62)</f>
-        <v>667.23522784242618</v>
+        <v>667.23607099273602</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>7</v>
@@ -20030,7 +20030,7 @@
       </c>
       <c r="O15" s="6">
         <f>O4/O14</f>
-        <v>13.294223597144823</v>
+        <v>13.294212026802031</v>
       </c>
       <c r="U15" s="2">
         <v>11</v>
@@ -20041,7 +20041,7 @@
       </c>
       <c r="W15" s="2">
         <f t="shared" si="0"/>
-        <v>3.5330557047363875E-4</v>
+        <v>3.5493110933604299E-4</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="8"/>
@@ -20049,7 +20049,7 @@
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>-1.4483779225771265E-4</v>
+        <v>-1.4321302262587654E-4</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="3"/>
@@ -20057,15 +20057,15 @@
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="2"/>
-        <v>1.0423266278014598E-4</v>
+        <v>1.0585781693162044E-4</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="4"/>
-        <v>3.682598038552589E-8</v>
+        <v>3.7572232395431801E-8</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="5"/>
-        <v>-1.5096828758218999E-8</v>
+        <v>-1.5160217931354056E-8</v>
       </c>
       <c r="AD15" s="2">
         <f t="shared" si="6"/>
@@ -20079,29 +20079,29 @@
         <v>2197.75390625</v>
       </c>
       <c r="AH15" s="2">
-        <v>-2.7971015676966999</v>
+        <v>-2.7970942197923705</v>
       </c>
       <c r="AI15" s="2">
         <f t="shared" si="14"/>
         <v>2207.03125</v>
       </c>
       <c r="AJ15" s="2">
-        <v>1.4707159482245515</v>
+        <v>1.4707107859644566</v>
       </c>
       <c r="AK15" s="2">
         <f t="shared" si="9"/>
         <v>2202.392578125</v>
       </c>
       <c r="AL15" s="2">
-        <v>-0.66222437001010803</v>
+        <v>-0.66222327018886062</v>
       </c>
       <c r="AM15" s="2">
         <f t="shared" si="10"/>
-        <v>1.8523088235222327</v>
+        <v>1.8523008812572632</v>
       </c>
       <c r="AN15" s="2">
         <f t="shared" si="11"/>
-        <v>-0.97394394227682235</v>
+        <v>-0.97393890618341195</v>
       </c>
       <c r="AO15" s="2">
         <f t="shared" si="12"/>
@@ -20124,7 +20124,7 @@
       </c>
       <c r="G16" s="6">
         <f>O20</f>
-        <v>1624.663698365732</v>
+        <v>1624.6650559081652</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>20</v>
@@ -20134,7 +20134,7 @@
       </c>
       <c r="K16" s="6">
         <f xml:space="preserve"> $C$78 * ( $C$21 * (0.0095 * MAX(G7,G26) - 1.9275) +  $C$28 * (0.0095 * MAX(O20) - 1.9275) )</f>
-        <v>162.6348295977989</v>
+        <v>162.63483421108765</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>7</v>
@@ -20144,7 +20144,7 @@
       </c>
       <c r="O16" s="6">
         <f>(O13*$C$12)/(0.3048^2)/($C$5*2.20462/1000)^(2/3)</f>
-        <v>2.6885624793285841</v>
+        <v>2.6885647881247472</v>
       </c>
       <c r="U16" s="2">
         <v>12</v>
@@ -20155,7 +20155,7 @@
       </c>
       <c r="W16" s="2">
         <f t="shared" si="0"/>
-        <v>1.0423266278014598E-4</v>
+        <v>1.0585781693162044E-4</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="8"/>
@@ -20163,7 +20163,7 @@
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="1"/>
-        <v>-1.4483779225771265E-4</v>
+        <v>-1.4321302262587654E-4</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="3"/>
@@ -20171,15 +20171,15 @@
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="2"/>
-        <v>-2.0302871206800965E-5</v>
+        <v>-1.8677909339070986E-5</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="4"/>
-        <v>-2.1162223279672204E-9</v>
+        <v>-1.9772027074807801E-9</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="5"/>
-        <v>2.9406230420857339E-9</v>
+        <v>2.674919852780444E-9</v>
       </c>
       <c r="AD16" s="2">
         <f t="shared" si="6"/>
@@ -20193,29 +20193,29 @@
         <v>2202.392578125</v>
       </c>
       <c r="AH16" s="2">
-        <v>-0.66222437001010803</v>
+        <v>-0.66222327018886062</v>
       </c>
       <c r="AI16" s="2">
         <f t="shared" si="14"/>
         <v>2207.03125</v>
       </c>
       <c r="AJ16" s="2">
-        <v>1.4707159482245515</v>
+        <v>1.4707107859644566</v>
       </c>
       <c r="AK16" s="2">
         <f t="shared" si="9"/>
         <v>2204.7119140625</v>
       </c>
       <c r="AL16" s="2">
-        <v>0.40448768601095253</v>
+        <v>0.40448565653809965</v>
       </c>
       <c r="AM16" s="2">
         <f t="shared" si="10"/>
-        <v>-0.26786160304544943</v>
+        <v>-0.26785981421714866</v>
       </c>
       <c r="AN16" s="2">
         <f t="shared" si="11"/>
-        <v>0.5948864906767527</v>
+        <v>0.59488141783849779</v>
       </c>
       <c r="AO16" s="2">
         <f t="shared" si="12"/>
@@ -20238,7 +20238,7 @@
       </c>
       <c r="G17" s="6">
         <f xml:space="preserve"> 1/1000 * (O25 + O20 * (O30 * O27 + $C$7 * SIN(O19/180*PI())))</f>
-        <v>114.0653214483131</v>
+        <v>114.06541694385571</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>101</v>
@@ -20261,7 +20261,7 @@
       </c>
       <c r="W17" s="2">
         <f t="shared" si="0"/>
-        <v>1.0423266278014598E-4</v>
+        <v>1.0585781693162044E-4</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="8"/>
@@ -20269,7 +20269,7 @@
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0302871206800965E-5</v>
+        <v>-1.8677909339070986E-5</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="3"/>
@@ -20277,15 +20277,15 @@
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="2"/>
-        <v>4.1964819155415611E-5</v>
+        <v>4.3589877159022627E-5</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="4"/>
-        <v>4.3741048436562455E-9</v>
+        <v>4.614329236371641E-9</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="5"/>
-        <v>-8.5200631852909718E-10</v>
+        <v>-8.141677736774658E-10</v>
       </c>
       <c r="AD17" s="2">
         <f t="shared" si="6"/>
@@ -20299,29 +20299,29 @@
         <v>2202.392578125</v>
       </c>
       <c r="AH17" s="2">
-        <v>-0.66222437001010803</v>
+        <v>-0.66222327018886062</v>
       </c>
       <c r="AI17" s="2">
         <f t="shared" si="14"/>
         <v>2204.7119140625</v>
       </c>
       <c r="AJ17" s="2">
-        <v>0.40448768601095253</v>
+        <v>0.40448565653809965</v>
       </c>
       <c r="AK17" s="2">
         <f t="shared" si="9"/>
         <v>2203.55224609375</v>
       </c>
       <c r="AL17" s="2">
-        <v>-0.12880801845471979</v>
+        <v>-0.12880818413941597</v>
       </c>
       <c r="AM17" s="2">
         <f t="shared" si="10"/>
-        <v>8.5299808873427183E-2</v>
+        <v>8.5299776927892978E-2</v>
       </c>
       <c r="AN17" s="2">
         <f t="shared" si="11"/>
-        <v>-5.2101257324405674E-2</v>
+        <v>-5.2101062929112103E-2</v>
       </c>
       <c r="AO17" s="2">
         <f t="shared" si="12"/>
@@ -20340,7 +20340,7 @@
       </c>
       <c r="G18" s="6">
         <f xml:space="preserve"> (G16/$C$74*1000) / (G17*1000)</f>
-        <v>1.4533132627381593</v>
+        <v>1.4533132603884003</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>147</v>
@@ -20350,16 +20350,16 @@
       </c>
       <c r="K18" s="6">
         <f xml:space="preserve"> $C$78 * (0.2138 * K4 + 0.2138 * K6)</f>
-        <v>116.75277567941524</v>
+        <v>116.7530066627163</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="32" t="s">
+      <c r="N18" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
@@ -20369,7 +20369,7 @@
       </c>
       <c r="W18" s="2">
         <f t="shared" si="0"/>
-        <v>4.1964819155415611E-5</v>
+        <v>4.3589877159022627E-5</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" si="8"/>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0302871206800965E-5</v>
+        <v>-1.8677909339070986E-5</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="3"/>
@@ -20385,15 +20385,15 @@
       </c>
       <c r="AA18" s="2">
         <f t="shared" si="2"/>
-        <v>1.08309548182417E-5</v>
+        <v>1.2455964752411397E-5</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="4"/>
-        <v>4.5451906022799031E-10</v>
+        <v>5.4295397345472849E-10</v>
       </c>
       <c r="AC18" s="2">
         <f t="shared" si="5"/>
-        <v>-2.1989948072144159E-10</v>
+        <v>-2.3265138037620385E-10</v>
       </c>
       <c r="AD18" s="2">
         <f t="shared" si="6"/>
@@ -20407,29 +20407,29 @@
         <v>2203.55224609375</v>
       </c>
       <c r="AH18" s="2">
-        <v>-0.12880801845471979</v>
+        <v>-0.12880818413941597</v>
       </c>
       <c r="AI18" s="2">
         <f t="shared" si="14"/>
         <v>2204.7119140625</v>
       </c>
       <c r="AJ18" s="2">
-        <v>0.40448768601095253</v>
+        <v>0.40448565653809965</v>
       </c>
       <c r="AK18" s="2">
         <f t="shared" si="9"/>
         <v>2204.132080078125</v>
       </c>
       <c r="AL18" s="2">
-        <v>0.13785506418844307</v>
+        <v>0.13785366799288568</v>
       </c>
       <c r="AM18" s="2">
         <f t="shared" si="10"/>
-        <v>-1.7756837652061555E-2</v>
+        <v>-1.7756680651121532E-2</v>
       </c>
       <c r="AN18" s="2">
         <f t="shared" si="11"/>
-        <v>5.5760675918474667E-2</v>
+        <v>5.5759831404287578E-2</v>
       </c>
       <c r="AO18" s="2">
         <f t="shared" si="12"/>
@@ -20442,14 +20442,14 @@
       </c>
       <c r="G19" s="6">
         <f>O23 / ($C$29*$C$11/PI())</f>
-        <v>4.5298102081450582E-2</v>
+        <v>4.5301635355819499E-2</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>77</v>
       </c>
       <c r="K19" s="6">
         <f xml:space="preserve"> $C$78 * (0.1149 * K4 + 0.1149 * K6)</f>
-        <v>62.745060456336809</v>
+        <v>62.745184590954665</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>7</v>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="W19" s="2">
         <f t="shared" si="0"/>
-        <v>1.08309548182417E-5</v>
+        <v>1.2455964752411397E-5</v>
       </c>
       <c r="X19" s="2">
         <f t="shared" si="8"/>
@@ -20481,7 +20481,7 @@
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0302871206800965E-5</v>
+        <v>-1.8677909339070986E-5</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="3"/>
@@ -20489,15 +20489,15 @@
       </c>
       <c r="AA19" s="2">
         <f t="shared" si="2"/>
-        <v>-4.7359629831156269E-6</v>
+        <v>-3.1109770824988559E-6</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="4"/>
-        <v>-5.1295001090990536E-11</v>
+        <v>-3.8750220885165392E-11</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="5"/>
-        <v>9.6153646486373473E-11</v>
+        <v>5.8106547902841192E-11</v>
       </c>
       <c r="AD19" s="2">
         <f t="shared" si="6"/>
@@ -20511,29 +20511,29 @@
         <v>2203.55224609375</v>
       </c>
       <c r="AH19" s="2">
-        <v>-0.12880801845471979</v>
+        <v>-0.12880818413941597</v>
       </c>
       <c r="AI19" s="2">
         <f t="shared" si="14"/>
         <v>2204.132080078125</v>
       </c>
       <c r="AJ19" s="2">
-        <v>0.13785506418844307</v>
+        <v>0.13785366799288568</v>
       </c>
       <c r="AK19" s="2">
         <f t="shared" si="9"/>
         <v>2203.8421630859375</v>
       </c>
       <c r="AL19" s="2">
-        <v>4.527255761786364E-3</v>
+        <v>4.5267735906691087E-3</v>
       </c>
       <c r="AM19" s="2">
         <f t="shared" si="10"/>
-        <v>-5.8314684371341444E-4</v>
+        <v>-5.830854862243518E-4</v>
       </c>
       <c r="AN19" s="2">
         <f t="shared" si="11"/>
-        <v>6.2410513363855792E-4</v>
+        <v>6.2403234364706225E-4</v>
       </c>
       <c r="AO19" s="2">
         <f t="shared" si="12"/>
@@ -20541,17 +20541,17 @@
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
       <c r="F20" s="26" t="s">
         <v>132</v>
       </c>
       <c r="G20" s="25">
         <f xml:space="preserve"> $C$28 * G17</f>
-        <v>114.0653214483131</v>
+        <v>114.06541694385571</v>
       </c>
       <c r="H20" s="25" t="s">
         <v>101</v>
@@ -20561,7 +20561,7 @@
       </c>
       <c r="K20" s="6">
         <f xml:space="preserve"> $C$79 * (14.86 * ($C$5*2.20462)^0.144 * ($C$36/(PI()*$C$37))^0.778 * ($C$36*3.28084)^0.383 * $C$35^0.455 * 0.453592)</f>
-        <v>214.96257323240866</v>
+        <v>214.96257215687044</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>7</v>
@@ -20571,7 +20571,7 @@
       </c>
       <c r="O20" s="6">
         <f xml:space="preserve"> O14 / $C$28</f>
-        <v>1624.663698365732</v>
+        <v>1624.6650559081652</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>20</v>
@@ -20585,7 +20585,7 @@
       </c>
       <c r="W20" s="2">
         <f t="shared" si="0"/>
-        <v>1.08309548182417E-5</v>
+        <v>1.2455964752411397E-5</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" si="8"/>
@@ -20593,7 +20593,7 @@
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="1"/>
-        <v>-4.7359629831156269E-6</v>
+        <v>-3.1109770824988559E-6</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="3"/>
@@ -20601,15 +20601,15 @@
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="2"/>
-        <v>3.0474947203540381E-6</v>
+        <v>4.6724926376917608E-6</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="4"/>
-        <v>3.3007277624984715E-11</v>
+        <v>5.8200403600990326E-11</v>
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="5"/>
-        <v>-1.4432822186837034E-11</v>
+        <v>-1.4536017514003698E-11</v>
       </c>
       <c r="AD20" s="2">
         <f t="shared" si="6"/>
@@ -20623,29 +20623,29 @@
         <v>2203.55224609375</v>
       </c>
       <c r="AH20" s="2">
-        <v>-0.12880801845471979</v>
+        <v>-0.12880818413941597</v>
       </c>
       <c r="AI20" s="2">
         <f t="shared" si="14"/>
         <v>2203.8421630859375</v>
       </c>
       <c r="AJ20" s="2">
-        <v>4.527255761786364E-3</v>
+        <v>4.5267735906691087E-3</v>
       </c>
       <c r="AK20" s="2">
         <f t="shared" si="9"/>
         <v>2203.6972045898438</v>
       </c>
       <c r="AL20" s="2">
-        <v>-6.2139448123843977E-2</v>
+        <v>-6.2139772046293729E-2</v>
       </c>
       <c r="AM20" s="2">
         <f t="shared" si="10"/>
-        <v>8.0040591807021971E-3</v>
+        <v>8.0041112001203365E-3</v>
       </c>
       <c r="AN20" s="2">
         <f t="shared" si="11"/>
-        <v>-2.8132117455289748E-4</v>
+        <v>-2.8129267902936099E-4</v>
       </c>
       <c r="AO20" s="2">
         <f t="shared" si="12"/>
@@ -20664,7 +20664,7 @@
       </c>
       <c r="K21" s="6">
         <f xml:space="preserve"> $C$79 * C41 * $C$5</f>
-        <v>57.29928365195164</v>
+        <v>57.299281661050529</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>7</v>
@@ -20674,7 +20674,7 @@
       </c>
       <c r="O21" s="6">
         <f>$C$6*2*PI()/60</f>
-        <v>42.728503239064231</v>
+        <v>42.73014420558335</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>27</v>
@@ -20688,7 +20688,7 @@
       </c>
       <c r="W21" s="2">
         <f t="shared" si="0"/>
-        <v>3.0474947203540381E-6</v>
+        <v>4.6724926376917608E-6</v>
       </c>
       <c r="X21" s="2">
         <f t="shared" si="8"/>
@@ -20696,7 +20696,7 @@
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="1"/>
-        <v>-4.7359629831156269E-6</v>
+        <v>-3.1109770824988559E-6</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="3"/>
@@ -20704,15 +20704,15 @@
       </c>
       <c r="AA21" s="2">
         <f t="shared" si="2"/>
-        <v>-8.4423443069692183E-7</v>
+        <v>7.8075747822481389E-7</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="4"/>
-        <v>-2.5727999702899662E-12</v>
+        <v>3.6480835688282281E-12</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="5"/>
-        <v>3.9982630128523168E-12</v>
+        <v>-2.4289186217469956E-12</v>
       </c>
       <c r="AD21" s="2">
         <f t="shared" si="6"/>
@@ -20726,29 +20726,29 @@
         <v>2203.6972045898438</v>
       </c>
       <c r="AH21" s="2">
-        <v>-6.2139448123843977E-2</v>
+        <v>-6.2139772046293729E-2</v>
       </c>
       <c r="AI21" s="2">
         <f t="shared" si="14"/>
         <v>2203.8421630859375</v>
       </c>
       <c r="AJ21" s="2">
-        <v>4.527255761786364E-3</v>
+        <v>4.5267735906691087E-3</v>
       </c>
       <c r="AK21" s="2">
         <f t="shared" si="9"/>
         <v>2203.7696838378906</v>
       </c>
       <c r="AL21" s="2">
-        <v>-2.8805564157210028E-2</v>
+        <v>-2.880656464230924E-2</v>
       </c>
       <c r="AM21" s="2">
         <f t="shared" si="10"/>
-        <v>1.7899618596250121E-3</v>
+        <v>1.7900333603099211E-3</v>
       </c>
       <c r="AN21" s="2">
         <f t="shared" si="11"/>
-        <v>-1.3041015630223588E-4</v>
+        <v>-1.3040079606070799E-4</v>
       </c>
       <c r="AO21" s="2">
         <f t="shared" si="12"/>
@@ -20762,17 +20762,17 @@
       <c r="C22" s="17">
         <v>2</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
       <c r="J22" s="14" t="s">
         <v>182</v>
       </c>
       <c r="K22" s="6">
         <f xml:space="preserve"> $C$79 * (0.04674 * ($C$5*2.20462)^0.397 * ($C$12*3.28084^2)^0.36 * $C$46^0.397 * $C$13^1.712 * 0.453592)</f>
-        <v>159.39640656523474</v>
+        <v>159.39511606464271</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>7</v>
@@ -20782,42 +20782,42 @@
       </c>
       <c r="O22" s="6">
         <f xml:space="preserve"> $C$7 * COS(O19/180*PI()) / (O21 * $C$10)</f>
-        <v>8.3227667834717231E-2</v>
+        <v>8.3227675207806648E-2</v>
       </c>
       <c r="U22" s="2">
         <v>18</v>
       </c>
       <c r="V22" s="2">
         <f t="shared" si="7"/>
-        <v>0.97104644775390625</v>
+        <v>0.97105026245117188</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" si="0"/>
-        <v>3.0474947203540381E-6</v>
+        <v>7.8075747822481389E-7</v>
       </c>
       <c r="X22" s="2">
         <f t="shared" si="8"/>
-        <v>0.97105026245117188</v>
+        <v>0.9710540771484375</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="1"/>
-        <v>-8.4423443069692183E-7</v>
+        <v>-3.1109770824988559E-6</v>
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="3"/>
-        <v>0.97104835510253906</v>
+        <v>0.97105216979980469</v>
       </c>
       <c r="AA22" s="2">
         <f t="shared" si="2"/>
-        <v>1.1016300700550374E-6</v>
+        <v>-1.1651098769105417E-6</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="4"/>
-        <v>3.3572118222759757E-12</v>
+        <v>-9.0966824935149777E-13</v>
       </c>
       <c r="AC22" s="2">
         <f t="shared" si="5"/>
-        <v>-9.3003403503152456E-13</v>
+        <v>3.624630125661758E-12</v>
       </c>
       <c r="AD22" s="2">
         <f t="shared" si="6"/>
@@ -20831,29 +20831,29 @@
         <v>2203.7696838378906</v>
       </c>
       <c r="AH22" s="2">
-        <v>-2.8805564157210028E-2</v>
+        <v>-2.880656464230924E-2</v>
       </c>
       <c r="AI22" s="2">
         <f t="shared" si="14"/>
         <v>2203.8421630859375</v>
       </c>
       <c r="AJ22" s="2">
-        <v>4.527255761786364E-3</v>
+        <v>4.5267735906691087E-3</v>
       </c>
       <c r="AK22" s="2">
         <f t="shared" si="9"/>
         <v>2203.8059234619141</v>
       </c>
       <c r="AL22" s="2">
-        <v>-1.2139394591258679E-2</v>
+        <v>-1.2139837200720649E-2</v>
       </c>
       <c r="AM22" s="2">
         <f t="shared" si="10"/>
-        <v>3.4968210972819027E-4</v>
+        <v>3.4970700506966983E-4</v>
       </c>
       <c r="AN22" s="2">
         <f t="shared" si="11"/>
-        <v>-5.4958144107874076E-5</v>
+        <v>-5.4954294435244634E-5</v>
       </c>
       <c r="AO22" s="2">
         <f t="shared" si="12"/>
@@ -20883,7 +20883,7 @@
       </c>
       <c r="K23" s="6">
         <f xml:space="preserve"> $C$79 * (3.184 * ($C$5*2.20462)^0.887 * ($C$50*3.28084*3.28084)^0.101 * ($C$49)^0.138 ) / ( 174.04 * ($C$51*3.28084)^0.223 ) * 0.453592</f>
-        <v>24.860527175629027</v>
+        <v>24.860526409442603</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>7</v>
@@ -20893,42 +20893,42 @@
       </c>
       <c r="O23" s="6">
         <f xml:space="preserve"> O20 / ( $C$71 * PI() * $C$10^2 * O21^2 * $C$10^2)</f>
-        <v>3.850261167687704E-2</v>
+        <v>3.8505614899633028E-2</v>
       </c>
       <c r="U23" s="2">
         <v>19</v>
       </c>
       <c r="V23" s="2">
         <f t="shared" si="7"/>
-        <v>0.97104835510253906</v>
+        <v>0.97105026245117188</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="0"/>
-        <v>1.1016300700550374E-6</v>
+        <v>7.8075747822481389E-7</v>
       </c>
       <c r="X23" s="2">
         <f t="shared" si="8"/>
-        <v>0.97105026245117188</v>
+        <v>0.97105216979980469</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="1"/>
-        <v>-8.4423443069692183E-7</v>
+        <v>-1.1651098769105417E-6</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="3"/>
-        <v>0.97104930877685547</v>
+        <v>0.97105121612548828</v>
       </c>
       <c r="AA23" s="2">
         <f t="shared" si="2"/>
-        <v>1.2869780097179984E-7</v>
+        <v>-1.9217621805012186E-7</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="4"/>
-        <v>1.4177736750049312E-13</v>
+        <v>-1.500430193795951E-13</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="5"/>
-        <v>-1.0865111473537319E-13</v>
+        <v>2.239064097575109E-13</v>
       </c>
       <c r="AD23" s="2">
         <f t="shared" si="6"/>
@@ -20942,29 +20942,29 @@
         <v>2203.8059234619141</v>
       </c>
       <c r="AH23" s="2">
-        <v>-1.2139394591258679E-2</v>
+        <v>-1.2139837200720649E-2</v>
       </c>
       <c r="AI23" s="2">
         <f t="shared" si="14"/>
         <v>2203.8421630859375</v>
       </c>
       <c r="AJ23" s="2">
-        <v>4.527255761786364E-3</v>
+        <v>4.5267735906691087E-3</v>
       </c>
       <c r="AK23" s="2">
         <f t="shared" si="9"/>
         <v>2203.8240432739258</v>
       </c>
       <c r="AL23" s="2">
-        <v>-3.8057561112054827E-3</v>
+        <v>-3.8068159487920639E-3</v>
       </c>
       <c r="AM23" s="2">
         <f t="shared" si="10"/>
-        <v>4.61995751520175E-5</v>
+        <v>4.621412587144257E-5</v>
       </c>
       <c r="AN23" s="2">
         <f t="shared" si="11"/>
-        <v>-1.7229631282408689E-5</v>
+        <v>-1.7232593901529881E-5</v>
       </c>
       <c r="AO23" s="2">
         <f t="shared" si="12"/>
@@ -20993,7 +20993,7 @@
       </c>
       <c r="K24" s="6">
         <f xml:space="preserve"> $C$79 * ( 1.68 * ($C$5*2.20462)^0.567 * ($C$55*3.28084*3.28084)^1.249 * ($C$54)^0.482 ) / (639.95 * ($C$56*3.28084)^0.747 * (COS($C$57/180*PI()))^0.882 ) * 0.453592</f>
-        <v>8.6723350896223081</v>
+        <v>8.6723349187704848</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>7</v>
@@ -21009,35 +21009,35 @@
       </c>
       <c r="V24" s="2">
         <f t="shared" si="7"/>
-        <v>0.97104930877685547</v>
+        <v>0.97105026245117188</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="0"/>
-        <v>1.2869780097179984E-7</v>
+        <v>7.8075747822481389E-7</v>
       </c>
       <c r="X24" s="2">
         <f t="shared" si="8"/>
-        <v>0.97105026245117188</v>
+        <v>0.97105121612548828</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="1"/>
-        <v>-8.4423443069692183E-7</v>
+        <v>-1.9217621805012186E-7</v>
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="3"/>
-        <v>0.97104978561401367</v>
+        <v>0.97105073928833008</v>
       </c>
       <c r="AA24" s="2">
         <f t="shared" si="2"/>
-        <v>-3.577683195254977E-7</v>
+        <v>2.9429062542440931E-7</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="4"/>
-        <v>-4.604399598030779E-14</v>
+        <v>2.2976960657156511E-13</v>
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="5"/>
-        <v>3.0204033355600298E-13</v>
+        <v>-5.6555659401668018E-14</v>
       </c>
       <c r="AD24" s="2">
         <f t="shared" si="6"/>
@@ -21051,29 +21051,29 @@
         <v>2203.8240432739258</v>
       </c>
       <c r="AH24" s="2">
-        <v>-3.8057561112054827E-3</v>
+        <v>-3.8068159487920639E-3</v>
       </c>
       <c r="AI24" s="2">
         <f t="shared" si="14"/>
         <v>2203.8421630859375</v>
       </c>
       <c r="AJ24" s="2">
-        <v>4.527255761786364E-3</v>
+        <v>4.5267735906691087E-3</v>
       </c>
       <c r="AK24" s="2">
         <f t="shared" si="9"/>
         <v>2203.8331031799316</v>
       </c>
       <c r="AL24" s="2">
-        <v>3.610521941936895E-4</v>
+        <v>3.5998246653434762E-4</v>
       </c>
       <c r="AM24" s="2">
         <f t="shared" si="10"/>
-        <v>-1.3740765945167825E-6</v>
+        <v>-1.3703869948884599E-6</v>
       </c>
       <c r="AN24" s="2">
         <f t="shared" si="11"/>
-        <v>1.6345756264689899E-6</v>
+        <v>1.6295591226116111E-6</v>
       </c>
       <c r="AO24" s="2">
         <f t="shared" si="12"/>
@@ -21105,7 +21105,7 @@
       </c>
       <c r="K25" s="6">
         <f>$C$79*(0.14*$G$10*1000/745.7)*0.453592</f>
-        <v>23.231630157367874</v>
+        <v>23.231684986900778</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>7</v>
@@ -21115,7 +21115,7 @@
       </c>
       <c r="O25" s="6">
         <f xml:space="preserve"> ($C$30 * $O$24 / 8) * (1 + 4.65 * O22^2) * ( PI() * $C$71 * O21^3 * $C$10^5)</f>
-        <v>2892.1273102869059</v>
+        <v>2891.9039167432716</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>18</v>
@@ -21125,35 +21125,35 @@
       </c>
       <c r="V25" s="2">
         <f t="shared" si="7"/>
-        <v>0.97104930877685547</v>
+        <v>0.97105073928833008</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="0"/>
-        <v>1.2869780097179984E-7</v>
+        <v>2.9429062542440931E-7</v>
       </c>
       <c r="X25" s="2">
         <f t="shared" si="8"/>
-        <v>0.97104978561401367</v>
+        <v>0.97105121612548828</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="1"/>
-        <v>-3.577683195254977E-7</v>
+        <v>-1.9217621805012186E-7</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="3"/>
-        <v>0.97104954719543457</v>
+        <v>0.97105097770690918</v>
       </c>
       <c r="AA25" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1453526049809426E-7</v>
+        <v>5.1057202576920702E-8</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="4"/>
-        <v>-1.4740436159836983E-14</v>
+        <v>1.5025656078782756E-14</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="5"/>
-        <v>4.0977087674818301E-14</v>
+        <v>-9.8119800954515571E-15</v>
       </c>
       <c r="AD25" s="2">
         <f t="shared" si="6"/>
@@ -21167,29 +21167,29 @@
         <v>2203.8240432739258</v>
       </c>
       <c r="AH25" s="2">
-        <v>-3.8057561112054827E-3</v>
+        <v>-3.8068159487920639E-3</v>
       </c>
       <c r="AI25" s="2">
         <f t="shared" si="14"/>
         <v>2203.8331031799316</v>
       </c>
       <c r="AJ25" s="2">
-        <v>3.610521941936895E-4</v>
+        <v>3.5998246653434762E-4</v>
       </c>
       <c r="AK25" s="2">
         <f t="shared" si="9"/>
         <v>2203.8285732269287</v>
       </c>
       <c r="AL25" s="2">
-        <v>-1.7223510478743265E-3</v>
+        <v>-1.7234158306109748E-3</v>
       </c>
       <c r="AM25" s="2">
         <f t="shared" si="10"/>
-        <v>6.5548480260888849E-6</v>
+        <v>6.5607268703705811E-6</v>
       </c>
       <c r="AN25" s="2">
         <f t="shared" si="11"/>
-        <v>-6.2185862500682589E-7</v>
+        <v>-6.2039948156768015E-7</v>
       </c>
       <c r="AO25" s="2">
         <f t="shared" si="12"/>
@@ -21202,7 +21202,7 @@
       </c>
       <c r="G26" s="6">
         <f xml:space="preserve"> $C$5 * $C$68 / $C$21</f>
-        <v>2700.0885771417652</v>
+        <v>2700.0884833254204</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>20</v>
@@ -21212,7 +21212,7 @@
       </c>
       <c r="K26" s="6">
         <f xml:space="preserve"> $C$80 * (0.0268 * $C$5)</f>
-        <v>47.249870826840123</v>
+        <v>47.249869185112438</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>7</v>
@@ -21222,42 +21222,42 @@
       </c>
       <c r="O26" s="18">
         <f>Z34</f>
-        <v>0.97104943497106433</v>
+        <v>0.97105102753266692</v>
       </c>
       <c r="U26" s="2">
         <v>22</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" si="7"/>
-        <v>0.97104930877685547</v>
+        <v>0.97105097770690918</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="0"/>
-        <v>1.2869780097179984E-7</v>
+        <v>5.1057202576920702E-8</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" si="8"/>
-        <v>0.97104954719543457</v>
+        <v>0.97105121612548828</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="1"/>
-        <v>-1.1453526049809426E-7</v>
+        <v>-1.9217621805012186E-7</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="3"/>
-        <v>0.97104942798614502</v>
+        <v>0.97105109691619873</v>
       </c>
       <c r="AA26" s="2">
         <f t="shared" si="2"/>
-        <v>7.0812700148081831E-9</v>
+        <v>-7.0559508014156336E-8</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="4"/>
-        <v>9.113438789933577E-16</v>
+        <v>-3.6025710944066396E-15</v>
       </c>
       <c r="AC26" s="2">
         <f t="shared" si="5"/>
-        <v>-8.1105510580339902E-16</v>
+        <v>1.355985939763783E-14</v>
       </c>
       <c r="AD26" s="2">
         <f t="shared" si="6"/>
@@ -21271,29 +21271,29 @@
         <v>2203.8285732269287</v>
       </c>
       <c r="AH26" s="2">
-        <v>-1.7223510478743265E-3</v>
+        <v>-1.7234158306109748E-3</v>
       </c>
       <c r="AI26" s="2">
         <f t="shared" si="14"/>
         <v>2203.8331031799316</v>
       </c>
       <c r="AJ26" s="2">
-        <v>3.610521941936895E-4</v>
+        <v>3.5998246653434762E-4</v>
       </c>
       <c r="AK26" s="2">
         <f t="shared" si="9"/>
         <v>2203.8308382034302</v>
       </c>
       <c r="AL26" s="2">
-        <v>-6.8064919923926936E-4</v>
+        <v>-6.8171645466463815E-4</v>
       </c>
       <c r="AM26" s="2">
         <f t="shared" si="10"/>
-        <v>1.1723168615445768E-6</v>
+        <v>1.1748809299570262E-6</v>
       </c>
       <c r="AN26" s="2">
         <f t="shared" si="11"/>
-        <v>-2.4574988686151594E-7</v>
+        <v>-2.4540597082722722E-7</v>
       </c>
       <c r="AO26" s="2">
         <f t="shared" si="12"/>
@@ -21301,17 +21301,17 @@
       </c>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
       <c r="F27" t="s">
         <v>97</v>
       </c>
       <c r="G27" s="6">
         <f>G29/$C$21</f>
-        <v>37.777770682791527</v>
+        <v>37.777872197842989</v>
       </c>
       <c r="H27" t="s">
         <v>101</v>
@@ -21321,7 +21321,7 @@
       </c>
       <c r="K27" s="6">
         <f xml:space="preserve"> $C$80 * (11.5 * ($C$5*2.20462/1000)^0.4 * 0.453592)</f>
-        <v>7.8533878943506625</v>
+        <v>7.8533877852022194</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>7</v>
@@ -21331,7 +21331,7 @@
       </c>
       <c r="O27" s="6">
         <f xml:space="preserve"> O21 * $C$10 * O26 - $C$7 * SIN(O19/180*PI())</f>
-        <v>1.3870606184532193</v>
+        <v>1.3871664087085236</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>10</v>
@@ -21341,35 +21341,35 @@
       </c>
       <c r="V27" s="2">
         <f t="shared" si="7"/>
-        <v>0.97104942798614502</v>
+        <v>0.97105097770690918</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="0"/>
-        <v>7.0812700148081831E-9</v>
+        <v>5.1057202576920702E-8</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" si="8"/>
-        <v>0.97104954719543457</v>
+        <v>0.97105109691619873</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" si="1"/>
-        <v>-1.1453526049809426E-7</v>
+        <v>-7.0559508014156336E-8</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="3"/>
-        <v>0.97104948759078979</v>
+        <v>0.97105103731155396</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" si="2"/>
-        <v>-5.372699529715419E-8</v>
+        <v>-9.7511528851512708E-9</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="4"/>
-        <v>-3.8045536078347823E-16</v>
+        <v>-4.9786658821569323E-16</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="5"/>
-        <v>6.1536354021394401E-15</v>
+        <v>6.8803655014709481E-16</v>
       </c>
       <c r="AD27" s="2">
         <f t="shared" si="6"/>
@@ -21383,29 +21383,29 @@
         <v>2203.8308382034302</v>
       </c>
       <c r="AH27" s="2">
-        <v>-6.8064919923926936E-4</v>
+        <v>-6.8171645466463815E-4</v>
       </c>
       <c r="AI27" s="2">
         <f t="shared" si="14"/>
         <v>2203.8331031799316</v>
       </c>
       <c r="AJ27" s="2">
-        <v>3.610521941936895E-4</v>
+        <v>3.5998246653434762E-4</v>
       </c>
       <c r="AK27" s="2">
         <f t="shared" si="9"/>
         <v>2203.8319706916809</v>
       </c>
       <c r="AL27" s="2">
-        <v>-1.5979844556568423E-4</v>
+        <v>-1.608669372217264E-4</v>
       </c>
       <c r="AM27" s="2">
         <f t="shared" si="10"/>
-        <v>1.0876668401396294E-7</v>
+        <v>1.0966563811555424E-7</v>
       </c>
       <c r="AN27" s="2">
         <f t="shared" si="11"/>
-        <v>-5.7695579400231145E-8</v>
+        <v>-5.7909276844903124E-8</v>
       </c>
       <c r="AO27" s="2">
         <f t="shared" si="12"/>
@@ -21424,7 +21424,7 @@
       </c>
       <c r="G28" s="6">
         <f xml:space="preserve"> (G26/$C$68*1000) / (G27*1000)</f>
-        <v>7.2920482143551295</v>
+        <v>7.2920283661147147</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>147</v>
@@ -21434,7 +21434,7 @@
       </c>
       <c r="K28" s="6">
         <f xml:space="preserve"> $C$80 * (8 * ($C$5/1000))</f>
-        <v>14.104439052788095</v>
+        <v>14.104438562720128</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>7</v>
@@ -21444,42 +21444,42 @@
       </c>
       <c r="O28" s="6">
         <f xml:space="preserve"> 1/$C$31 - O25 * SQRT( (2*$C$71*PI()*$C$10^2) / O20^3 )</f>
-        <v>1.1506251891126813</v>
+        <v>1.1506465630069975</v>
       </c>
       <c r="U28" s="2">
         <v>24</v>
       </c>
       <c r="V28" s="2">
         <f t="shared" si="7"/>
-        <v>0.97104942798614502</v>
+        <v>0.97105097770690918</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="0"/>
-        <v>7.0812700148081831E-9</v>
+        <v>5.1057202576920702E-8</v>
       </c>
       <c r="X28" s="2">
         <f t="shared" si="8"/>
-        <v>0.97104948759078979</v>
+        <v>0.97105103731155396</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="1"/>
-        <v>-5.372699529715419E-8</v>
+        <v>-9.7511528851512708E-9</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="3"/>
-        <v>0.97104945778846741</v>
+        <v>0.97105100750923157</v>
       </c>
       <c r="AA28" s="2">
         <f t="shared" si="2"/>
-        <v>-2.3322862641173003E-8</v>
+        <v>2.0653024845884715E-8</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="4"/>
-        <v>-1.6515548788042837E-16</v>
+        <v>1.0544856733825124E-15</v>
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="5"/>
-        <v>1.253067331438475E-15</v>
+        <v>-2.0139080281304962E-16</v>
       </c>
       <c r="AD28" s="2">
         <f t="shared" si="6"/>
@@ -21493,29 +21493,29 @@
         <v>2203.8319706916809</v>
       </c>
       <c r="AH28" s="2">
-        <v>-1.5979844556568423E-4</v>
+        <v>-1.608669372217264E-4</v>
       </c>
       <c r="AI28" s="2">
         <f t="shared" si="14"/>
         <v>2203.8331031799316</v>
       </c>
       <c r="AJ28" s="2">
-        <v>3.610521941936895E-4</v>
+        <v>3.5998246653434762E-4</v>
       </c>
       <c r="AK28" s="2">
         <f t="shared" si="9"/>
         <v>2203.8325369358063</v>
       </c>
       <c r="AL28" s="2">
-        <v>1.0032816544480738E-4</v>
+        <v>9.9259052831257577E-5</v>
       </c>
       <c r="AM28" s="2">
         <f t="shared" si="10"/>
-        <v>-1.6032284884537014E-8</v>
+        <v>-1.5967499820493936E-8</v>
       </c>
       <c r="AN28" s="2">
         <f t="shared" si="11"/>
-        <v>3.6223704273275201E-8</v>
+        <v>3.5731518664059223E-8</v>
       </c>
       <c r="AO28" s="2">
         <f t="shared" si="12"/>
@@ -21534,7 +21534,7 @@
       </c>
       <c r="G29" s="25">
         <f xml:space="preserve"> 1/1000 * IF( $G$23&gt;=2*SQRT(($C$5*$C$68)/(2*$C$65*$C$21*PI()*$C$8*$C$8)), ($C$5*$C$68)/$C$24 * ( ($G$23/2) - SQRT( ($G$23/2)^2 - ($C$5*$C$68)/(2*$C$65*$C$21*PI()*$C$8*$C$8 ) ) ), 1/$C$24 * SQRT(($C$5*$C$68)^3/(2*$C$65*$C$21*PI()*$C$8*$C$8)) )</f>
-        <v>302.22216546233221</v>
+        <v>302.22297758274391</v>
       </c>
       <c r="H29" s="25" t="s">
         <v>101</v>
@@ -21544,7 +21544,7 @@
       </c>
       <c r="K29" s="6">
         <f xml:space="preserve"> $C$80 * (13 * ($C$5*2.20462/1000)^1.3 * 0.453592)</f>
-        <v>36.826563086996003</v>
+        <v>36.826561423564058</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>7</v>
@@ -21560,35 +21560,35 @@
       </c>
       <c r="V29" s="2">
         <f t="shared" si="7"/>
-        <v>0.97104942798614502</v>
+        <v>0.97105100750923157</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="0"/>
-        <v>7.0812700148081831E-9</v>
+        <v>2.0653024845884715E-8</v>
       </c>
       <c r="X29" s="2">
         <f t="shared" si="8"/>
-        <v>0.97104945778846741</v>
+        <v>0.97105103731155396</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="1"/>
-        <v>-2.3322862641173003E-8</v>
+        <v>-9.7511528851512708E-9</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="3"/>
-        <v>0.97104944288730621</v>
+        <v>0.97105102241039276</v>
       </c>
       <c r="AA29" s="2">
         <f t="shared" si="2"/>
-        <v>-8.1207963686935614E-9</v>
+        <v>5.4509360358778736E-9</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="4"/>
-        <v>-5.7505551821992895E-17</v>
+        <v>1.1257831738231406E-16</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="5"/>
-        <v>1.8940021824397644E-16</v>
+        <v>-5.3152910653025558E-17</v>
       </c>
       <c r="AD29" s="2">
         <f t="shared" si="6"/>
@@ -21602,29 +21602,29 @@
         <v>2203.8319706916809</v>
       </c>
       <c r="AH29" s="2">
-        <v>-1.5979844556568423E-4</v>
+        <v>-1.608669372217264E-4</v>
       </c>
       <c r="AI29" s="2">
         <f t="shared" si="14"/>
         <v>2203.8325369358063</v>
       </c>
       <c r="AJ29" s="2">
-        <v>1.0032816544480738E-4</v>
+        <v>9.9259052831257577E-5</v>
       </c>
       <c r="AK29" s="2">
         <f t="shared" si="9"/>
         <v>2203.8322538137436</v>
       </c>
       <c r="AL29" s="2">
-        <v>-3.0033859502509586E-5</v>
+        <v>-3.0505213089782046E-5</v>
       </c>
       <c r="AM29" s="2">
         <f t="shared" si="10"/>
-        <v>4.7993640628391864E-9</v>
+        <v>4.9072801990493549E-9</v>
       </c>
       <c r="AN29" s="2">
         <f t="shared" si="11"/>
-        <v>-3.0132420251138821E-9</v>
+        <v>-3.0279185577074464E-9</v>
       </c>
       <c r="AO29" s="2">
         <f t="shared" si="12"/>
@@ -21644,7 +21644,7 @@
       </c>
       <c r="K30" s="10">
         <f>$C$5 - $C$16 - SUM(K15:K29)</f>
-        <v>-6.3083110258048691E-3</v>
+        <v>-6.3441867507663119E-3</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>7</v>
@@ -21654,42 +21654,42 @@
       </c>
       <c r="O30" s="6">
         <f xml:space="preserve"> 1/$C$77 * LN( EXP($C$77 * O28) + EXP($C$77 * O29) )</f>
-        <v>1.1734189662838721</v>
+        <v>1.173429755161546</v>
       </c>
       <c r="U30" s="2">
         <v>26</v>
       </c>
       <c r="V30" s="2">
         <f>IF(AB29&gt;0, Z29, V29)</f>
-        <v>0.97104942798614502</v>
+        <v>0.97105102241039276</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" si="0"/>
-        <v>7.0812700148081831E-9</v>
+        <v>5.4509360358778736E-9</v>
       </c>
       <c r="X30" s="2">
         <f t="shared" si="8"/>
-        <v>0.97104944288730621</v>
+        <v>0.97105103731155396</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="1"/>
-        <v>-8.1207963686935614E-9</v>
+        <v>-9.7511528851512708E-9</v>
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="3"/>
-        <v>0.97104943543672562</v>
+        <v>0.97105102986097336</v>
       </c>
       <c r="AA30" s="2">
         <f t="shared" si="2"/>
-        <v>-5.1976323245384037E-10</v>
+        <v>-2.1501084246366986E-9</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="4"/>
-        <v>-3.6805837927751553E-18</v>
+        <v>-1.1720103492896786E-17</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="5"/>
-        <v>4.2208913706915743E-18</v>
+        <v>2.0966035968284197E-17</v>
       </c>
       <c r="AD30" s="2">
         <f t="shared" si="6"/>
@@ -21703,29 +21703,29 @@
         <v>2203.8322538137436</v>
       </c>
       <c r="AH30" s="2">
-        <v>-3.0033859502509586E-5</v>
+        <v>-3.0505213089782046E-5</v>
       </c>
       <c r="AI30" s="2">
         <f t="shared" si="14"/>
         <v>2203.8325369358063</v>
       </c>
       <c r="AJ30" s="2">
-        <v>1.0032816544480738E-4</v>
+        <v>9.9259052831257577E-5</v>
       </c>
       <c r="AK30" s="2">
         <f t="shared" si="9"/>
         <v>2203.8323953747749</v>
       </c>
       <c r="AL30" s="2">
-        <v>3.5445876619633054E-5</v>
+        <v>3.4376920893919305E-5</v>
       </c>
       <c r="AM30" s="2">
         <f t="shared" si="10"/>
-        <v>-1.0645764783373485E-9</v>
+        <v>-1.048675297239589E-9</v>
       </c>
       <c r="AN30" s="2">
         <f t="shared" si="11"/>
-        <v>3.5562197738307751E-9</v>
+        <v>3.4122206071854986E-9</v>
       </c>
       <c r="AO30" s="2">
         <f t="shared" si="12"/>
@@ -21739,11 +21739,11 @@
       <c r="C31" s="17">
         <v>0.75</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
       <c r="J31" s="6" t="s">
         <v>55</v>
       </c>
@@ -21756,35 +21756,35 @@
       </c>
       <c r="V31" s="2">
         <f t="shared" si="7"/>
-        <v>0.97104942798614502</v>
+        <v>0.97105102241039276</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="0"/>
-        <v>7.0812700148081831E-9</v>
+        <v>5.4509360358778736E-9</v>
       </c>
       <c r="X31" s="2">
         <f t="shared" si="8"/>
-        <v>0.97104943543672562</v>
+        <v>0.97105102986097336</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="1"/>
-        <v>-5.1976323245384037E-10</v>
+        <v>-2.1501084246366986E-9</v>
       </c>
       <c r="Z31" s="2">
         <f t="shared" si="3"/>
-        <v>0.97104943171143532</v>
+        <v>0.97105102613568306</v>
       </c>
       <c r="AA31" s="2">
         <f t="shared" si="2"/>
-        <v>3.2807533356660201E-9</v>
+        <v>1.6504138056205875E-9</v>
       </c>
       <c r="AB31" s="2">
         <f t="shared" si="4"/>
-        <v>2.3231900221833714E-17</v>
+        <v>8.9963000871676005E-18</v>
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="5"/>
-        <v>-1.7052149586294898E-18</v>
+        <v>-3.5485686276015399E-18</v>
       </c>
       <c r="AD31" s="2">
         <f t="shared" si="6"/>
@@ -21798,29 +21798,29 @@
         <v>2203.8322538137436</v>
       </c>
       <c r="AH31" s="2">
-        <v>-3.0033859502509586E-5</v>
+        <v>-3.0505213089782046E-5</v>
       </c>
       <c r="AI31" s="2">
         <f t="shared" si="14"/>
         <v>2203.8323953747749</v>
       </c>
       <c r="AJ31" s="2">
-        <v>3.5445876619633054E-5</v>
+        <v>3.4376920893919305E-5</v>
       </c>
       <c r="AK31" s="2">
         <f t="shared" si="9"/>
         <v>2203.8323245942593</v>
       </c>
       <c r="AL31" s="2">
-        <v>2.7060086722485721E-6</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AM31" s="2">
         <f t="shared" si="10"/>
-        <v>-8.1271884274886124E-11</v>
+        <v>-4.9940944816581495E-11</v>
       </c>
       <c r="AN31" s="2">
         <f t="shared" si="11"/>
-        <v>9.5916849528179947E-11</v>
+        <v>5.6279426872853807E-11</v>
       </c>
       <c r="AO31" s="2">
         <f t="shared" si="12"/>
@@ -21852,35 +21852,35 @@
       </c>
       <c r="V32" s="2">
         <f t="shared" si="7"/>
-        <v>0.97104943171143532</v>
+        <v>0.97105102613568306</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="0"/>
-        <v>3.2807533356660201E-9</v>
+        <v>1.6504138056205875E-9</v>
       </c>
       <c r="X32" s="2">
         <f t="shared" si="8"/>
-        <v>0.97104943543672562</v>
+        <v>0.97105102986097336</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" si="1"/>
-        <v>-5.1976323245384037E-10</v>
+        <v>-2.1501084246366986E-9</v>
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="3"/>
-        <v>0.97104943357408047</v>
+        <v>0.97105102799832821</v>
       </c>
       <c r="AA32" s="2">
         <f t="shared" si="2"/>
-        <v>1.3804950516060899E-9</v>
+        <v>-2.4984736501920679E-10</v>
       </c>
       <c r="AB32" s="2">
         <f t="shared" si="4"/>
-        <v>4.5290637454271139E-18</v>
+        <v>-4.1235154052562512E-19</v>
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="5"/>
-        <v>-7.1753057040931245E-19</v>
+        <v>5.3719892440107691E-19</v>
       </c>
       <c r="AD32" s="2">
         <f t="shared" si="6"/>
@@ -21894,29 +21894,29 @@
         <v>2203.8322538137436</v>
       </c>
       <c r="AH32" s="2">
-        <v>-3.0033859502509586E-5</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AI32" s="2">
         <f t="shared" si="14"/>
         <v>2203.8323245942593</v>
       </c>
       <c r="AJ32" s="2">
-        <v>2.7060086722485721E-6</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AK32" s="2">
         <f t="shared" si="9"/>
         <v>2203.8322892040014</v>
       </c>
       <c r="AL32" s="2">
-        <v>-1.3663925301443669E-5</v>
+        <v>-1.4135316860119929E-5</v>
       </c>
       <c r="AM32" s="2">
         <f t="shared" si="10"/>
-        <v>4.1038041275634509E-10</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AN32" s="2">
         <f t="shared" si="11"/>
-        <v>-3.6974700362663253E-11</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AO32" s="2">
         <f t="shared" si="12"/>
@@ -21929,7 +21929,7 @@
       </c>
       <c r="G33" s="25">
         <f xml:space="preserve"> G20</f>
-        <v>114.0653214483131</v>
+        <v>114.06541694385571</v>
       </c>
       <c r="H33" s="25" t="s">
         <v>101</v>
@@ -21944,35 +21944,35 @@
       </c>
       <c r="V33" s="2">
         <f t="shared" si="7"/>
-        <v>0.97104943357408047</v>
+        <v>0.97105102613568306</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="0"/>
-        <v>1.3804950516060899E-9</v>
+        <v>1.6504138056205875E-9</v>
       </c>
       <c r="X33" s="2">
         <f t="shared" si="8"/>
-        <v>0.97104943543672562</v>
+        <v>0.97105102799832821</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="1"/>
-        <v>-5.1976323245384037E-10</v>
+        <v>-2.4984736501920679E-10</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="3"/>
-        <v>0.97104943450540304</v>
+        <v>0.97105102706700563</v>
       </c>
       <c r="AA33" s="2">
         <f t="shared" si="2"/>
-        <v>4.3036596508727598E-10</v>
+        <v>7.0028327581184158E-10</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="4"/>
-        <v>5.9411808518266373E-19</v>
+        <v>1.155757186245073E-18</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="5"/>
-        <v>-2.2368840515187918E-19</v>
+        <v>-1.7496393122860705E-19</v>
       </c>
       <c r="AD33" s="2">
         <f t="shared" si="6"/>
@@ -21983,44 +21983,44 @@
       </c>
       <c r="AG33" s="2">
         <f t="shared" si="13"/>
-        <v>2203.8322892040014</v>
+        <v>2203.8322538137436</v>
       </c>
       <c r="AH33" s="2">
-        <v>-1.3663925301443669E-5</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AI33" s="2">
         <f t="shared" si="14"/>
         <v>2203.8323245942593</v>
       </c>
       <c r="AJ33" s="2">
-        <v>2.7060086722485721E-6</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AK33" s="2">
         <f t="shared" si="9"/>
-        <v>2203.8323068991303</v>
+        <v>2203.8322892040014</v>
       </c>
       <c r="AL33" s="2">
-        <v>-5.4789577461633598E-6</v>
+        <v>-1.4135316860119929E-5</v>
       </c>
       <c r="AM33" s="2">
         <f t="shared" si="10"/>
-        <v>7.4864069373342312E-11</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AN33" s="2">
         <f t="shared" si="11"/>
-        <v>-1.4826107176001543E-11</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AO33" s="2">
         <f t="shared" si="12"/>
-        <v>3.5390257835388184E-5</v>
+        <v>7.0780515670776367E-5</v>
       </c>
     </row>
     <row r="34" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
       <c r="J34" s="6" t="s">
         <v>57</v>
       </c>
@@ -22036,35 +22036,35 @@
       </c>
       <c r="V34" s="2">
         <f t="shared" si="7"/>
-        <v>0.97104943450540304</v>
+        <v>0.97105102706700563</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="0"/>
-        <v>4.3036596508727598E-10</v>
+        <v>7.0028327581184158E-10</v>
       </c>
       <c r="X34" s="2">
         <f t="shared" si="8"/>
-        <v>0.97104943543672562</v>
+        <v>0.97105102799832821</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="1"/>
-        <v>-5.1976323245384037E-10</v>
+        <v>-2.4984736501920679E-10</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="3"/>
-        <v>0.97104943497106433</v>
+        <v>0.97105102753266692</v>
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="2"/>
-        <v>-4.4698578172130965E-11</v>
+        <v>2.2521795539631739E-10</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="4"/>
-        <v>-1.9236746733078191E-20</v>
+        <v>1.5771636757657837E-19</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="5"/>
-        <v>2.3232677476837462E-20</v>
+        <v>-5.6270112710783145E-20</v>
       </c>
       <c r="AD34" s="2">
         <f t="shared" si="6"/>
@@ -22075,36 +22075,36 @@
       </c>
       <c r="AG34" s="2">
         <f t="shared" si="13"/>
-        <v>2203.8323068991303</v>
+        <v>2203.8322538137436</v>
       </c>
       <c r="AH34" s="2">
-        <v>-5.4789577461633598E-6</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AI34" s="2">
         <f t="shared" si="14"/>
         <v>2203.8323245942593</v>
       </c>
       <c r="AJ34" s="2">
-        <v>2.7060086722485721E-6</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AK34" s="2">
         <f t="shared" si="9"/>
-        <v>2203.8323157466948</v>
+        <v>2203.8322892040014</v>
       </c>
       <c r="AL34" s="2">
-        <v>-1.386474878017907E-6</v>
+        <v>-1.4135316860119929E-5</v>
       </c>
       <c r="AM34" s="2">
         <f t="shared" si="10"/>
-        <v>7.5964372727771112E-12</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AN34" s="2">
         <f t="shared" si="11"/>
-        <v>-3.7518130437712376E-12</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AO34" s="2">
         <f t="shared" si="12"/>
-        <v>1.7695128917694092E-5</v>
+        <v>7.0780515670776367E-5</v>
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
@@ -22129,36 +22129,36 @@
       </c>
       <c r="AG35" s="2">
         <f t="shared" si="13"/>
-        <v>2203.8323157466948</v>
+        <v>2203.8322538137436</v>
       </c>
       <c r="AH35" s="2">
-        <v>-1.386474878017907E-6</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AI35" s="2">
         <f t="shared" si="14"/>
         <v>2203.8323245942593</v>
       </c>
       <c r="AJ35" s="2">
-        <v>2.7060086722485721E-6</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AK35" s="2">
         <f t="shared" si="9"/>
-        <v>2203.832320170477</v>
+        <v>2203.8322892040014</v>
       </c>
       <c r="AL35" s="2">
-        <v>6.5976678342849482E-7</v>
+        <v>-1.4135316860119929E-5</v>
       </c>
       <c r="AM35" s="2">
         <f t="shared" si="10"/>
-        <v>-9.1475007057428924E-13</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AN35" s="2">
         <f t="shared" si="11"/>
-        <v>1.7853346376190525E-12</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AO35" s="2">
         <f t="shared" si="12"/>
-        <v>8.8475644588470459E-6</v>
+        <v>7.0780515670776367E-5</v>
       </c>
     </row>
     <row r="36" spans="2:41" x14ac:dyDescent="0.2">
@@ -22186,36 +22186,36 @@
       </c>
       <c r="AG36" s="2">
         <f t="shared" si="13"/>
-        <v>2203.8323157466948</v>
+        <v>2203.8322538137436</v>
       </c>
       <c r="AH36" s="2">
-        <v>-1.386474878017907E-6</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AI36" s="2">
         <f t="shared" si="14"/>
-        <v>2203.832320170477</v>
+        <v>2203.8323245942593</v>
       </c>
       <c r="AJ36" s="2">
-        <v>6.5976678342849482E-7</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AK36" s="2">
         <f t="shared" si="9"/>
-        <v>2203.8323179585859</v>
+        <v>2203.8322892040014</v>
       </c>
       <c r="AL36" s="2">
-        <v>-3.6335336517367978E-7</v>
+        <v>-1.4135316860119929E-5</v>
       </c>
       <c r="AM36" s="2">
         <f t="shared" si="10"/>
-        <v>5.037803126565737E-13</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AN36" s="2">
         <f t="shared" si="11"/>
-        <v>-2.3972848098855798E-13</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AO36" s="2">
         <f t="shared" si="12"/>
-        <v>4.4237822294235229E-6</v>
+        <v>7.0780515670776367E-5</v>
       </c>
     </row>
     <row r="37" spans="2:41" x14ac:dyDescent="0.2">
@@ -22243,36 +22243,36 @@
       </c>
       <c r="AG37" s="2">
         <f t="shared" si="13"/>
-        <v>2203.8323179585859</v>
+        <v>2203.8322538137436</v>
       </c>
       <c r="AH37" s="2">
-        <v>-3.6335336517367978E-7</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AI37" s="2">
         <f t="shared" si="14"/>
-        <v>2203.832320170477</v>
+        <v>2203.8323245942593</v>
       </c>
       <c r="AJ37" s="2">
-        <v>6.5976678342849482E-7</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AK37" s="2">
         <f t="shared" si="9"/>
-        <v>2203.8323190645315</v>
+        <v>2203.8322892040014</v>
       </c>
       <c r="AL37" s="2">
-        <v>1.4820670912740752E-7</v>
+        <v>-1.4135316860119929E-5</v>
       </c>
       <c r="AM37" s="2">
         <f t="shared" si="10"/>
-        <v>-5.3851406502760245E-14</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AN37" s="2">
         <f t="shared" si="11"/>
-        <v>9.7781863763512204E-14</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AO37" s="2">
         <f t="shared" si="12"/>
-        <v>2.2118911147117615E-6</v>
+        <v>7.0780515670776367E-5</v>
       </c>
     </row>
     <row r="38" spans="2:41" x14ac:dyDescent="0.2">
@@ -22291,44 +22291,44 @@
       </c>
       <c r="AG38" s="2">
         <f t="shared" si="13"/>
-        <v>2203.8323179585859</v>
+        <v>2203.8322538137436</v>
       </c>
       <c r="AH38" s="2">
-        <v>-3.6335336517367978E-7</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AI38" s="2">
         <f t="shared" si="14"/>
-        <v>2203.8323190645315</v>
+        <v>2203.8323245942593</v>
       </c>
       <c r="AJ38" s="2">
-        <v>1.4820670912740752E-7</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AK38" s="2">
         <f t="shared" si="9"/>
-        <v>2203.8323185115587</v>
+        <v>2203.8322892040014</v>
       </c>
       <c r="AL38" s="2">
-        <v>-1.0757366908364929E-7</v>
+        <v>-1.4135316860119929E-5</v>
       </c>
       <c r="AM38" s="2">
         <f t="shared" si="10"/>
-        <v>3.9087254665623808E-14</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AN38" s="2">
         <f t="shared" si="11"/>
-        <v>-1.5943139483648402E-14</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AO38" s="2">
         <f t="shared" si="12"/>
-        <v>1.1059455573558807E-6</v>
+        <v>7.0780515670776367E-5</v>
       </c>
     </row>
     <row r="39" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
       <c r="J39" s="10" t="s">
         <v>59</v>
       </c>
@@ -22344,36 +22344,36 @@
       </c>
       <c r="AG39" s="2">
         <f t="shared" si="13"/>
-        <v>2203.8323185115587</v>
+        <v>2203.8322538137436</v>
       </c>
       <c r="AH39" s="2">
-        <v>-1.0757366908364929E-7</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AI39" s="2">
         <f t="shared" si="14"/>
-        <v>2203.8323190645315</v>
+        <v>2203.8323245942593</v>
       </c>
       <c r="AJ39" s="2">
-        <v>1.4820670912740752E-7</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AK39" s="2">
         <f t="shared" si="9"/>
-        <v>2203.8323187880451</v>
+        <v>2203.8322892040014</v>
       </c>
       <c r="AL39" s="2">
-        <v>2.0316520021879114E-8</v>
+        <v>-1.4135316860119929E-5</v>
       </c>
       <c r="AM39" s="2">
         <f t="shared" si="10"/>
-        <v>-2.1855226017649591E-15</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AN39" s="2">
         <f t="shared" si="11"/>
-        <v>3.011044573363789E-15</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AO39" s="2">
         <f t="shared" si="12"/>
-        <v>5.5297277867794037E-7</v>
+        <v>7.0780515670776367E-5</v>
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
@@ -22388,36 +22388,36 @@
       </c>
       <c r="AG40" s="2">
         <f t="shared" si="13"/>
-        <v>2203.8323185115587</v>
+        <v>2203.8322538137436</v>
       </c>
       <c r="AH40" s="2">
-        <v>-1.0757366908364929E-7</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AI40" s="2">
         <f t="shared" si="14"/>
-        <v>2203.8323187880451</v>
+        <v>2203.8323245942593</v>
       </c>
       <c r="AJ40" s="2">
-        <v>2.0316520021879114E-8</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AK40" s="2">
         <f t="shared" si="9"/>
-        <v>2203.8323186498019</v>
+        <v>2203.8322892040014</v>
       </c>
       <c r="AL40" s="2">
-        <v>-4.3627551349345595E-8</v>
+        <v>-1.4135316860119929E-5</v>
       </c>
       <c r="AM40" s="2">
         <f t="shared" si="10"/>
-        <v>4.6931757717844202E-15</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AN40" s="2">
         <f t="shared" si="11"/>
-        <v>-8.8636002049453894E-16</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AO40" s="2">
         <f t="shared" si="12"/>
-        <v>2.7648638933897018E-7</v>
+        <v>7.0780515670776367E-5</v>
       </c>
     </row>
     <row r="41" spans="2:41" x14ac:dyDescent="0.2">
@@ -22428,46 +22428,46 @@
         <f>IF(C40="wheeled",0.0325,0.014)</f>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="J41" s="30" t="s">
+      <c r="J41" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
       <c r="AG41" s="2">
         <f t="shared" si="13"/>
-        <v>2203.8323186498019</v>
+        <v>2203.8322538137436</v>
       </c>
       <c r="AH41" s="2">
-        <v>-4.3627551349345595E-8</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AI41" s="2">
         <f t="shared" si="14"/>
-        <v>2203.8323187880451</v>
+        <v>2203.8323245942593</v>
       </c>
       <c r="AJ41" s="2">
-        <v>2.0316520021879114E-8</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AK41" s="2">
         <f t="shared" si="9"/>
-        <v>2203.8323187189235</v>
+        <v>2203.8322892040014</v>
       </c>
       <c r="AL41" s="2">
-        <v>-1.1656084097921848E-8</v>
+        <v>-1.4135316860119929E-5</v>
       </c>
       <c r="AM41" s="2">
         <f t="shared" si="10"/>
-        <v>5.0852640751437606E-16</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AN41" s="2">
         <f t="shared" si="11"/>
-        <v>-2.3681106595213598E-16</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AO41" s="2">
         <f t="shared" si="12"/>
-        <v>1.3824319466948509E-7</v>
+        <v>7.0780515670776367E-5</v>
       </c>
     </row>
     <row r="42" spans="2:41" x14ac:dyDescent="0.2">
@@ -22495,36 +22495,36 @@
       </c>
       <c r="AG42" s="2">
         <f t="shared" si="13"/>
-        <v>2203.8323187189235</v>
+        <v>2203.8322538137436</v>
       </c>
       <c r="AH42" s="2">
-        <v>-1.1656084097921848E-8</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AI42" s="2">
         <f t="shared" si="14"/>
-        <v>2203.8323187880451</v>
+        <v>2203.8323245942593</v>
       </c>
       <c r="AJ42" s="2">
-        <v>2.0316520021879114E-8</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AK42" s="2">
         <f t="shared" si="9"/>
-        <v>2203.8323187534843</v>
+        <v>2203.8322892040014</v>
       </c>
       <c r="AL42" s="2">
-        <v>4.3301042751409113E-9</v>
+        <v>-1.4135316860119929E-5</v>
       </c>
       <c r="AM42" s="2">
         <f t="shared" si="10"/>
-        <v>-5.0472059583813388E-17</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AN42" s="2">
         <f t="shared" si="11"/>
-        <v>8.7972650202724674E-17</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AO42" s="2">
         <f t="shared" si="12"/>
-        <v>6.9121597334742546E-8</v>
+        <v>7.0780515670776367E-5</v>
       </c>
     </row>
     <row r="43" spans="2:41" x14ac:dyDescent="0.2">
@@ -22549,36 +22549,36 @@
       </c>
       <c r="AG43" s="2">
         <f t="shared" si="13"/>
-        <v>2203.8323187189235</v>
+        <v>2203.8322538137436</v>
       </c>
       <c r="AH43" s="2">
-        <v>-1.1656084097921848E-8</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AI43" s="2">
         <f t="shared" si="14"/>
-        <v>2203.8323187534843</v>
+        <v>2203.8323245942593</v>
       </c>
       <c r="AJ43" s="2">
-        <v>2.0316520021879114E-8</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AK43" s="2">
         <f t="shared" si="9"/>
-        <v>2203.8323187362039</v>
+        <v>2203.8322892040014</v>
       </c>
       <c r="AL43" s="2">
-        <v>1.2323653209023178E-8</v>
+        <v>-1.4135316860119929E-5</v>
       </c>
       <c r="AM43" s="2">
         <f t="shared" si="10"/>
-        <v>-1.4364553819799862E-16</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AN43" s="2">
         <f t="shared" si="11"/>
-        <v>2.5037374716381418E-16</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AO43" s="2">
         <f t="shared" si="12"/>
-        <v>3.4560798667371273E-8</v>
+        <v>7.0780515670776367E-5</v>
       </c>
     </row>
     <row r="44" spans="2:41" x14ac:dyDescent="0.2">
@@ -22597,44 +22597,44 @@
       </c>
       <c r="AG44" s="2">
         <f t="shared" si="13"/>
-        <v>2203.8323187189235</v>
+        <v>2203.8322538137436</v>
       </c>
       <c r="AH44" s="2">
-        <v>-1.1656084097921848E-8</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AI44" s="2">
         <f t="shared" si="14"/>
-        <v>2203.8323187362039</v>
+        <v>2203.8323245942593</v>
       </c>
       <c r="AJ44" s="2">
-        <v>2.0316520021879114E-8</v>
+        <v>1.6371282072213944E-6</v>
       </c>
       <c r="AK44" s="5">
         <f t="shared" si="9"/>
-        <v>2203.8323187275637</v>
+        <v>2203.8322892040014</v>
       </c>
       <c r="AL44" s="2">
-        <v>1.6320427675964311E-8</v>
+        <v>-1.4135316860119929E-5</v>
       </c>
       <c r="AM44" s="2">
         <f t="shared" si="10"/>
-        <v>-1.9023227750509123E-16</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AN44" s="2">
         <f t="shared" si="11"/>
-        <v>3.3157429564435894E-16</v>
+        <v>-2.3141325949714489E-11</v>
       </c>
       <c r="AO44" s="2">
         <f t="shared" si="12"/>
-        <v>1.7280399333685637E-8</v>
+        <v>7.0780515670776367E-5</v>
       </c>
     </row>
     <row r="45" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
       <c r="J45" s="20" t="s">
         <v>69</v>
       </c>
@@ -22677,11 +22677,11 @@
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
@@ -22716,11 +22716,11 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
@@ -22766,11 +22766,11 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
@@ -22800,11 +22800,11 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
@@ -22851,11 +22851,11 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
@@ -22902,11 +22902,11 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
@@ -22953,11 +22953,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B70:D70"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="B15:D15"/>
@@ -22970,12 +22971,11 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
@@ -23006,8 +23006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4333E1A9-C4C4-A348-BC37-5AE9FA751E17}">
   <dimension ref="B1:AO81"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23048,11 +23048,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -23063,26 +23063,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="F3" s="32" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="F3" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="J3" s="30" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="J3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
       <c r="U3" s="7" t="s">
         <v>41</v>
       </c>
@@ -23166,7 +23166,7 @@
       </c>
       <c r="K4" s="6">
         <f>(1+$C$25/100)*MAX(G10,G29)</f>
-        <v>472.95078853868375</v>
+        <v>472.31227830399007</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>101</v>
@@ -23176,7 +23176,7 @@
       </c>
       <c r="O4" s="6">
         <f xml:space="preserve"> $C$5 * $C$74</f>
-        <v>22932.533473167514</v>
+        <v>22933.477843159511</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>20</v>
@@ -23189,14 +23189,14 @@
       </c>
       <c r="W4" s="2">
         <f t="shared" ref="W4:W34" si="0" xml:space="preserve"> $O$22 * TAN($O$19/180*PI()) + $O$23 / (2 * SQRT($O$22^2 + V4^2)) - V4</f>
-        <v>1.1828663183068546</v>
+        <v>1.1865215979774031</v>
       </c>
       <c r="X4" s="3">
         <v>1</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" ref="Y4:Y34" si="1" xml:space="preserve"> $O$22 * TAN($O$19/180*PI()) + $O$23 / (2 * SQRT($O$22^2 + X4^2)) - X4</f>
-        <v>-2.9190164587395206E-2</v>
+        <v>-3.2336342493381021E-2</v>
       </c>
       <c r="Z4" s="2">
         <f xml:space="preserve"> (V4 + X4)/2</f>
@@ -23204,15 +23204,15 @@
       </c>
       <c r="AA4" s="2">
         <f t="shared" ref="AA4:AA34" si="2" xml:space="preserve"> $O$22 * TAN($O$19/180*PI()) + $O$23 / (2 * SQRT($O$22^2 + Z4^2)) - Z4</f>
-        <v>0.48960565886689156</v>
+        <v>0.48698417546575989</v>
       </c>
       <c r="AB4" s="2">
         <f>W4*AA4</f>
-        <v>0.57913804312608186</v>
+        <v>0.57781724206334151</v>
       </c>
       <c r="AC4" s="2">
         <f>Y4*AA4</f>
-        <v>-1.4291669765244637E-2</v>
+        <v>-1.5747287086717569E-2</v>
       </c>
       <c r="AD4" s="2">
         <f>X4-V4</f>
@@ -23223,15 +23223,15 @@
       </c>
       <c r="AH4" s="2">
         <f>K30</f>
-        <v>-1.3627336804802326E-3</v>
+        <v>6.2521201762137935E-3</v>
       </c>
       <c r="AJ4" s="2">
         <f>K30</f>
-        <v>-1.3627336804802326E-3</v>
+        <v>6.2521201762137935E-3</v>
       </c>
       <c r="AL4" s="2">
         <f>K30</f>
-        <v>-1.3627336804802326E-3</v>
+        <v>6.2521201762137935E-3</v>
       </c>
     </row>
     <row r="5" spans="2:41" x14ac:dyDescent="0.2">
@@ -23239,7 +23239,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="10">
-        <v>2339.9222388496</v>
+        <v>2340.01859769057</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>7</v>
@@ -23259,7 +23259,7 @@
       </c>
       <c r="K5" s="6">
         <f>K4/$C$21</f>
-        <v>59.118848567335469</v>
+        <v>59.039034787998759</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>101</v>
@@ -23283,7 +23283,7 @@
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>0.48960565886689156</v>
+        <v>0.48698417546575989</v>
       </c>
       <c r="X5" s="2">
         <f>IF(AC4&gt;0, Z4, X4)</f>
@@ -23291,7 +23291,7 @@
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9190164587395206E-2</v>
+        <v>-3.2336342493381021E-2</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" ref="Z5:Z34" si="3" xml:space="preserve"> (V5 + X5)/2</f>
@@ -23299,15 +23299,15 @@
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="2"/>
-        <v>0.22713696400962058</v>
+        <v>0.22416692713468933</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" ref="AB5:AB34" si="4">W5*AA5</f>
-        <v>0.11120754291695571</v>
+        <v>0.10916574617737976</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" ref="AC5:AC34" si="5">Y5*AA5</f>
-        <v>-6.6301653633220863E-3</v>
+        <v>-7.2487385315161013E-3</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" ref="AD5:AD34" si="6">X5-V5</f>
@@ -23320,15 +23320,15 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
-        <v>-967.98020122952676</v>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
+        <v>-968.58051289565299</v>
       </c>
       <c r="AI5" s="3">
         <v>10000</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5"/>
-        <v>3404.427706322831</v>
+        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <v>3405.1291263374142</v>
       </c>
       <c r="AK5" s="2">
         <f>(AG5+AI5)/2</f>
@@ -23336,15 +23336,15 @@
       </c>
       <c r="AL5" s="2">
         <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5" ca="1"/>
-        <v>1105.8303531524521</v>
+        <v>1107.2137435553559</v>
       </c>
       <c r="AM5" s="2">
         <f>AH5*AL5</f>
-        <v>-1070421.8877702293</v>
+        <v>-1072425.6556179626</v>
       </c>
       <c r="AN5" s="2">
         <f>AJ5*AL5</f>
-        <v>3764719.4927649684</v>
+        <v>3770205.7672614269</v>
       </c>
       <c r="AO5" s="2">
         <f>AI5-AG5</f>
@@ -23356,7 +23356,7 @@
         <v>163</v>
       </c>
       <c r="C6" s="17">
-        <v>419.65189454712402</v>
+        <v>428.59996670427103</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>125</v>
@@ -23376,7 +23376,7 @@
       </c>
       <c r="K6" s="6">
         <f>(1+$C$32/100)*MAX(G20)</f>
-        <v>161.53304489192249</v>
+        <v>161.68533762159575</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>101</v>
@@ -23386,7 +23386,7 @@
       </c>
       <c r="O6" s="6">
         <f xml:space="preserve"> ($C$21+$C$28) * 0.4 * ($C$5/($C$21+$C$28) *2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.23077789009185809</v>
+        <v>0.2307842257261567</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>115</v>
@@ -23400,7 +23400,7 @@
       </c>
       <c r="W6" s="2">
         <f t="shared" si="0"/>
-        <v>0.22713696400962058</v>
+        <v>0.22416692713468933</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" ref="X6:X34" si="8">IF(AC5&gt;0, Z5, X5)</f>
@@ -23408,7 +23408,7 @@
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9190164587395206E-2</v>
+        <v>-3.2336342493381021E-2</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="3"/>
@@ -23416,15 +23416,15 @@
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="2"/>
-        <v>9.8527627548075425E-2</v>
+        <v>9.5457061843907454E-2</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="4"/>
-        <v>2.237926619234051E-2</v>
+        <v>2.1398316226854737E-2</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="5"/>
-        <v>-2.8760376645338955E-3</v>
+        <v>-3.0867322451964448E-3</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="6"/>
@@ -23438,29 +23438,29 @@
         <v>500</v>
       </c>
       <c r="AH6" s="2">
-        <v>-967.98020122952676</v>
+        <v>-968.58051289565299</v>
       </c>
       <c r="AI6" s="2">
         <f>IF(AN5&gt;0,AK5,AI5)</f>
         <v>5250</v>
       </c>
       <c r="AJ6" s="2">
-        <v>1105.8303531524521</v>
+        <v>1107.2137435553559</v>
       </c>
       <c r="AK6" s="2">
         <f t="shared" ref="AK6:AK44" si="9">(AG6+AI6)/2</f>
         <v>2875</v>
       </c>
       <c r="AL6" s="2">
-        <v>246.99050135935545</v>
+        <v>247.18353989836896</v>
       </c>
       <c r="AM6" s="2">
         <f t="shared" ref="AM6:AM44" si="10">AH6*AL6</f>
-        <v>-239081.91520761058</v>
+        <v>-239417.15985412532</v>
       </c>
       <c r="AN6" s="2">
         <f t="shared" ref="AN6:AN44" si="11">AJ6*AL6</f>
-        <v>273129.59334351722</v>
+        <v>273685.01255613775</v>
       </c>
       <c r="AO6" s="2">
         <f t="shared" ref="AO6:AO44" si="12">AI6-AG6</f>
@@ -23483,7 +23483,7 @@
       </c>
       <c r="G7" s="6">
         <f xml:space="preserve"> $C$5 * $C$68 / $C$21</f>
-        <v>2866.8409018734305</v>
+        <v>2866.9589594148151</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>20</v>
@@ -23493,7 +23493,7 @@
       </c>
       <c r="K7" s="6">
         <f>K6/$C$28</f>
-        <v>161.53304489192249</v>
+        <v>161.68533762159575</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>101</v>
@@ -23513,7 +23513,7 @@
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>9.8527627548075425E-2</v>
+        <v>9.5457061843907454E-2</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="8"/>
@@ -23521,7 +23521,7 @@
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9190164587395206E-2</v>
+        <v>-3.2336342493381021E-2</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="3"/>
@@ -23529,15 +23529,15 @@
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="2"/>
-        <v>3.457920485880206E-2</v>
+        <v>3.1468333924765113E-2</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="4"/>
-        <v>3.4070070172366493E-3</v>
+        <v>3.0038746975810343E-3</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="5"/>
-        <v>-1.0093726811296882E-3</v>
+        <v>-1.0175708234872857E-3</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="6"/>
@@ -23551,29 +23551,29 @@
         <v>500</v>
       </c>
       <c r="AH7" s="2">
-        <v>-967.98020122952676</v>
+        <v>-968.58051289565299</v>
       </c>
       <c r="AI7" s="2">
         <f t="shared" ref="AI7:AI44" si="14">IF(AN6&gt;0,AK6,AI6)</f>
         <v>2875</v>
       </c>
       <c r="AJ7" s="2">
-        <v>246.99050135935545</v>
+        <v>247.18353989836896</v>
       </c>
       <c r="AK7" s="2">
         <f t="shared" si="9"/>
         <v>1687.5</v>
       </c>
       <c r="AL7" s="2">
-        <v>-325.94554804980089</v>
+        <v>-326.22988812390281</v>
       </c>
       <c r="AM7" s="2">
         <f t="shared" si="10"/>
-        <v>315508.83719111467</v>
+        <v>315979.91236094129</v>
       </c>
       <c r="AN7" s="2">
         <f t="shared" si="11"/>
-        <v>-80505.45432867021</v>
+        <v>-80638.65856711517</v>
       </c>
       <c r="AO7" s="2">
         <f t="shared" si="12"/>
@@ -23585,7 +23585,7 @@
         <v>95</v>
       </c>
       <c r="C8" s="17">
-        <v>2.3402757356603101</v>
+        <v>2.34411803876952</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
@@ -23595,7 +23595,7 @@
       </c>
       <c r="G8" s="6">
         <f>G10/$C$21</f>
-        <v>39.412565711556979</v>
+        <v>39.359356525332508</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>18</v>
@@ -23615,7 +23615,7 @@
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>3.457920485880206E-2</v>
+        <v>3.1468333924765113E-2</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="8"/>
@@ -23623,7 +23623,7 @@
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9190164587395206E-2</v>
+        <v>-3.2336342493381021E-2</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="3"/>
@@ -23631,15 +23631,15 @@
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="2"/>
-        <v>2.6742717552655781E-3</v>
+        <v>-4.5481763885679705E-4</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="4"/>
-        <v>9.2474190873436586E-5</v>
+        <v>-1.4312353334418914E-5</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="5"/>
-        <v>-7.8062432687624498E-5</v>
+        <v>1.470713894210427E-5</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="6"/>
@@ -23653,29 +23653,29 @@
         <v>1687.5</v>
       </c>
       <c r="AH8" s="2">
-        <v>-325.94554804980089</v>
+        <v>-326.22988812390281</v>
       </c>
       <c r="AI8" s="2">
         <f t="shared" si="14"/>
         <v>2875</v>
       </c>
       <c r="AJ8" s="2">
-        <v>246.99050135935545</v>
+        <v>247.18353989836896</v>
       </c>
       <c r="AK8" s="2">
         <f t="shared" si="9"/>
         <v>2281.25</v>
       </c>
       <c r="AL8" s="2">
-        <v>-28.226773344871617</v>
+        <v>-28.289155604514008</v>
       </c>
       <c r="AM8" s="2">
         <f t="shared" si="10"/>
-        <v>9200.3911075716915</v>
+        <v>9228.7680679802834</v>
       </c>
       <c r="AN8" s="2">
         <f t="shared" si="11"/>
-        <v>-6971.7449002067315</v>
+        <v>-6992.6136230595566</v>
       </c>
       <c r="AO8" s="2">
         <f t="shared" si="12"/>
@@ -23698,57 +23698,57 @@
       </c>
       <c r="G9" s="6">
         <f xml:space="preserve"> (G7/$C$68*1000) / (G8*1000)</f>
-        <v>7.4212443309782499</v>
+        <v>7.4315829966137947</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
       <c r="N9" s="6" t="s">
         <v>168</v>
       </c>
       <c r="O9" s="6">
         <f xml:space="preserve"> $O$8/$C$12 + $O$7</f>
-        <v>1.9213331158418855E-2</v>
+        <v>1.9176325143325137E-2</v>
       </c>
       <c r="U9" s="2">
         <v>5</v>
       </c>
       <c r="V9" s="2">
         <f t="shared" si="7"/>
-        <v>0.96875</v>
+        <v>0.9375</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="0"/>
-        <v>2.6742717552655781E-3</v>
+        <v>3.1468333924765113E-2</v>
       </c>
       <c r="X9" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.96875</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9190164587395206E-2</v>
+        <v>-4.5481763885679705E-4</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="3"/>
-        <v>0.984375</v>
+        <v>0.953125</v>
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3262770932823131E-2</v>
+        <v>1.5501302710802967E-2</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="4"/>
-        <v>-3.5468253702206202E-5</v>
+        <v>4.8780016997241438E-4</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="5"/>
-        <v>3.8714246641402826E-4</v>
+        <v>-7.0502658981318727E-6</v>
       </c>
       <c r="AD9" s="2">
         <f t="shared" si="6"/>
@@ -23762,29 +23762,29 @@
         <v>2281.25</v>
       </c>
       <c r="AH9" s="2">
-        <v>-28.226773344871617</v>
+        <v>-28.289155604514008</v>
       </c>
       <c r="AI9" s="2">
         <f t="shared" si="14"/>
         <v>2875</v>
       </c>
       <c r="AJ9" s="2">
-        <v>246.99050135935545</v>
+        <v>247.18353989836896</v>
       </c>
       <c r="AK9" s="2">
         <f t="shared" si="9"/>
         <v>2578.125</v>
       </c>
       <c r="AL9" s="2">
-        <v>112.29156549616005</v>
+        <v>112.35285997017104</v>
       </c>
       <c r="AM9" s="2">
         <f t="shared" si="10"/>
-        <v>-3169.6285678009158</v>
+        <v>-3178.3675383083414</v>
       </c>
       <c r="AN9" s="2">
         <f t="shared" si="11"/>
-        <v>27734.95006032347</v>
+        <v>27771.777645132635</v>
       </c>
       <c r="AO9" s="2">
         <f t="shared" si="12"/>
@@ -23796,7 +23796,7 @@
         <v>169</v>
       </c>
       <c r="C10" s="17">
-        <v>1.5973451165129799</v>
+        <v>1.5700660077336199</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
@@ -23806,7 +23806,7 @@
       </c>
       <c r="G10" s="25">
         <f xml:space="preserve"> 1/1000 * (($C$5*$C$68)/$C$24 * ( ($G$4/2) + SQRT( ($G$4/2)^2 + ($C$5*$C$68) / (2*$C$65*PI()*$C$8^2 * $C$21) ) ) )</f>
-        <v>315.30052569245584</v>
+        <v>314.87485220266007</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>101</v>
@@ -23816,7 +23816,7 @@
       </c>
       <c r="K10" s="6">
         <f xml:space="preserve"> $C$18 * (G10*G6 + G20*G13 + G29*G25 + G33*G32)/3600</f>
-        <v>106.22285542312932</v>
+        <v>106.26057894790969</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>102</v>
@@ -23826,7 +23826,7 @@
       </c>
       <c r="O10" s="6">
         <f xml:space="preserve"> O5 * $C$12 * O9</f>
-        <v>1181.8742329871479</v>
+        <v>1183.9531142838623</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>20</v>
@@ -23836,35 +23836,35 @@
       </c>
       <c r="V10" s="2">
         <f t="shared" si="7"/>
-        <v>0.96875</v>
+        <v>0.953125</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="0"/>
-        <v>2.6742717552655781E-3</v>
+        <v>1.5501302710802967E-2</v>
       </c>
       <c r="X10" s="2">
         <f t="shared" si="8"/>
-        <v>0.984375</v>
+        <v>0.96875</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="1"/>
-        <v>-1.3262770932823131E-2</v>
+        <v>-4.5481763885679705E-4</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="3"/>
-        <v>0.9765625</v>
+        <v>0.9609375</v>
       </c>
       <c r="AA10" s="2">
         <f t="shared" si="2"/>
-        <v>-5.2954842489979503E-3</v>
+        <v>7.5219114468438875E-3</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="4"/>
-        <v>-1.416156395754897E-5</v>
+        <v>1.1659942630138102E-4</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="5"/>
-        <v>7.0232794572832742E-5</v>
+        <v>-3.4210980039434509E-6</v>
       </c>
       <c r="AD10" s="2">
         <f t="shared" si="6"/>
@@ -23878,29 +23878,29 @@
         <v>2281.25</v>
       </c>
       <c r="AH10" s="2">
-        <v>-28.226773344871617</v>
+        <v>-28.289155604514008</v>
       </c>
       <c r="AI10" s="2">
         <f t="shared" si="14"/>
         <v>2578.125</v>
       </c>
       <c r="AJ10" s="2">
-        <v>112.29156549616005</v>
+        <v>112.35285997017104</v>
       </c>
       <c r="AK10" s="2">
         <f t="shared" si="9"/>
         <v>2429.6875</v>
       </c>
       <c r="AL10" s="2">
-        <v>42.750898290215446</v>
+        <v>42.749319898516887</v>
       </c>
       <c r="AM10" s="2">
         <f t="shared" si="10"/>
-        <v>-1206.7199163275709</v>
+        <v>-1209.3421625962912</v>
       </c>
       <c r="AN10" s="2">
         <f t="shared" si="11"/>
-        <v>4800.5652953754043</v>
+        <v>4803.0083523781141</v>
       </c>
       <c r="AO10" s="2">
         <f t="shared" si="12"/>
@@ -23933,42 +23933,42 @@
       </c>
       <c r="O11" s="6">
         <f xml:space="preserve"> 1.78 * (1 - 0.045 * $C$13^0.68) - 0.64</f>
-        <v>0.74786409342351778</v>
+        <v>0.7480736598201253</v>
       </c>
       <c r="U11" s="2">
         <v>7</v>
       </c>
       <c r="V11" s="2">
         <f t="shared" si="7"/>
-        <v>0.96875</v>
+        <v>0.9609375</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="0"/>
-        <v>2.6742717552655781E-3</v>
+        <v>7.5219114468438875E-3</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" si="8"/>
-        <v>0.9765625</v>
+        <v>0.96875</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="1"/>
-        <v>-5.2954842489979503E-3</v>
+        <v>-4.5481763885679705E-4</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="3"/>
-        <v>0.97265625</v>
+        <v>0.96484375</v>
       </c>
       <c r="AA11" s="2">
         <f t="shared" si="2"/>
-        <v>-1.310918576740705E-3</v>
+        <v>3.5332181138990615E-3</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="4"/>
-        <v>-3.5057525232306185E-6</v>
+        <v>2.6576553775133522E-5</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="5"/>
-        <v>6.9419486748492138E-6</v>
+        <v>-1.6069699201296369E-6</v>
       </c>
       <c r="AD11" s="2">
         <f t="shared" si="6"/>
@@ -23982,29 +23982,29 @@
         <v>2281.25</v>
       </c>
       <c r="AH11" s="2">
-        <v>-28.226773344871617</v>
+        <v>-28.289155604514008</v>
       </c>
       <c r="AI11" s="2">
         <f t="shared" si="14"/>
         <v>2429.6875</v>
       </c>
       <c r="AJ11" s="2">
-        <v>42.750898290215446</v>
+        <v>42.749319898516887</v>
       </c>
       <c r="AK11" s="2">
         <f t="shared" si="9"/>
         <v>2355.46875</v>
       </c>
       <c r="AL11" s="2">
-        <v>7.4403602456677618</v>
+        <v>7.4081198380172282</v>
       </c>
       <c r="AM11" s="2">
         <f t="shared" si="10"/>
-        <v>-210.01736225865722</v>
+        <v>-209.56945483455647</v>
       </c>
       <c r="AN11" s="2">
         <f t="shared" si="11"/>
-        <v>318.08208410510491</v>
+        <v>316.6920848019476</v>
       </c>
       <c r="AO11" s="2">
         <f t="shared" si="12"/>
@@ -24016,57 +24016,57 @@
         <v>173</v>
       </c>
       <c r="C12" s="17">
-        <v>27.128653373185902</v>
+        <v>27.2288161746093</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
       <c r="N12" s="6" t="s">
         <v>175</v>
       </c>
       <c r="O12" s="6">
         <f xml:space="preserve"> O4 / (O5 * $C$12)</f>
-        <v>0.37280646927030864</v>
+        <v>0.37145037458149621</v>
       </c>
       <c r="U12" s="2">
         <v>8</v>
       </c>
       <c r="V12" s="2">
         <f t="shared" si="7"/>
-        <v>0.96875</v>
+        <v>0.96484375</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="0"/>
-        <v>2.6742717552655781E-3</v>
+        <v>3.5332181138990615E-3</v>
       </c>
       <c r="X12" s="2">
         <f t="shared" si="8"/>
-        <v>0.97265625</v>
+        <v>0.96875</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="1"/>
-        <v>-1.310918576740705E-3</v>
+        <v>-4.5481763885679705E-4</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="3"/>
-        <v>0.970703125</v>
+        <v>0.966796875</v>
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="2"/>
-        <v>6.8159804235712329E-4</v>
+        <v>1.5391185308615274E-3</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="4"/>
-        <v>1.8227783931199659E-6</v>
+        <v>5.4380414726776602E-6</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="5"/>
-        <v>-8.9351953559605087E-7</v>
+        <v>-7.0001825612718223E-7</v>
       </c>
       <c r="AD12" s="2">
         <f t="shared" si="6"/>
@@ -24080,29 +24080,29 @@
         <v>2281.25</v>
       </c>
       <c r="AH12" s="2">
-        <v>-28.226773344871617</v>
+        <v>-28.289155604514008</v>
       </c>
       <c r="AI12" s="2">
         <f t="shared" si="14"/>
         <v>2355.46875</v>
       </c>
       <c r="AJ12" s="2">
-        <v>7.4403602456677618</v>
+        <v>7.4081198380172282</v>
       </c>
       <c r="AK12" s="2">
         <f t="shared" si="9"/>
         <v>2318.359375</v>
       </c>
       <c r="AL12" s="2">
-        <v>-10.348814205673307</v>
+        <v>-10.396190476612901</v>
       </c>
       <c r="AM12" s="2">
         <f t="shared" si="10"/>
-        <v>292.11363297172801</v>
+        <v>294.09945008706899</v>
       </c>
       <c r="AN12" s="2">
         <f t="shared" si="11"/>
-        <v>-76.998905805693468</v>
+        <v>-77.016224909601817</v>
       </c>
       <c r="AO12" s="2">
         <f t="shared" si="12"/>
@@ -24114,7 +24114,7 @@
         <v>176</v>
       </c>
       <c r="C13" s="17">
-        <v>10.3375538925954</v>
+        <v>10.329430465460799</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>89</v>
@@ -24136,42 +24136,42 @@
       </c>
       <c r="O13" s="6">
         <f xml:space="preserve"> O9 + O12^2 / ( PI() * O11 * $C$13 )</f>
-        <v>2.4935709105575559E-2</v>
+        <v>2.4860023078406849E-2</v>
       </c>
       <c r="U13" s="2">
         <v>9</v>
       </c>
       <c r="V13" s="2">
         <f t="shared" si="7"/>
-        <v>0.970703125</v>
+        <v>0.966796875</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="0"/>
-        <v>6.8159804235712329E-4</v>
+        <v>1.5391185308615274E-3</v>
       </c>
       <c r="X13" s="2">
         <f t="shared" si="8"/>
-        <v>0.97265625</v>
+        <v>0.96875</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
-        <v>-1.310918576740705E-3</v>
+        <v>-4.5481763885679705E-4</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="3"/>
-        <v>0.9716796875</v>
+        <v>0.9677734375</v>
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="2"/>
-        <v>-3.1467984557709272E-4</v>
+        <v>5.4213008027004239E-4</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="4"/>
-        <v>-2.1448516671458825E-7</v>
+        <v>8.3440245268106955E-7</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="5"/>
-        <v>4.1251965529290723E-7</v>
+        <v>-2.4657032306166651E-7</v>
       </c>
       <c r="AD13" s="2">
         <f t="shared" si="6"/>
@@ -24185,29 +24185,29 @@
         <v>2318.359375</v>
       </c>
       <c r="AH13" s="2">
-        <v>-10.348814205673307</v>
+        <v>-10.396190476612901</v>
       </c>
       <c r="AI13" s="2">
         <f t="shared" si="14"/>
         <v>2355.46875</v>
       </c>
       <c r="AJ13" s="2">
-        <v>7.4403602456677618</v>
+        <v>7.4081198380172282</v>
       </c>
       <c r="AK13" s="2">
         <f t="shared" si="9"/>
         <v>2336.9140625</v>
       </c>
       <c r="AL13" s="2">
-        <v>-1.4431053712712583</v>
+        <v>-1.4829300629010049</v>
       </c>
       <c r="AM13" s="2">
         <f t="shared" si="10"/>
-        <v>14.934429366495449</v>
+        <v>15.416823397414397</v>
       </c>
       <c r="AN13" s="2">
         <f t="shared" si="11"/>
-        <v>-10.737223834716286</v>
+        <v>-10.98572361736907</v>
       </c>
       <c r="AO13" s="2">
         <f t="shared" si="12"/>
@@ -24220,7 +24220,7 @@
       </c>
       <c r="G14" s="6">
         <f>O21*$C$10</f>
-        <v>70.196678717378759</v>
+        <v>70.469089802799942</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>10</v>
@@ -24230,7 +24230,7 @@
       </c>
       <c r="K14" s="18">
         <f>C5</f>
-        <v>2339.9222388496</v>
+        <v>2340.01859769057</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>7</v>
@@ -24240,7 +24240,7 @@
       </c>
       <c r="O14" s="6">
         <f xml:space="preserve"> O5 * O13 * $C$12</f>
-        <v>1533.8762357317341</v>
+        <v>1534.8666402380804</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>20</v>
@@ -24250,35 +24250,35 @@
       </c>
       <c r="V14" s="2">
         <f t="shared" si="7"/>
-        <v>0.970703125</v>
+        <v>0.9677734375</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="0"/>
-        <v>6.8159804235712329E-4</v>
+        <v>5.4213008027004239E-4</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="8"/>
-        <v>0.9716796875</v>
+        <v>0.96875</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>-3.1467984557709272E-4</v>
+        <v>-4.5481763885679705E-4</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="3"/>
-        <v>0.97119140625</v>
+        <v>0.96826171875</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="2"/>
-        <v>1.8345419651910611E-4</v>
+        <v>4.3651136863775974E-5</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="4"/>
-        <v>1.2504202120962171E-7</v>
+        <v>2.3664594331837476E-8</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="5"/>
-        <v>-5.772933823110193E-8</v>
+        <v>-1.9853307001797481E-8</v>
       </c>
       <c r="AD14" s="2">
         <f t="shared" si="6"/>
@@ -24292,29 +24292,29 @@
         <v>2336.9140625</v>
       </c>
       <c r="AH14" s="2">
-        <v>-1.4431053712712583</v>
+        <v>-1.4829300629010049</v>
       </c>
       <c r="AI14" s="2">
         <f t="shared" si="14"/>
         <v>2355.46875</v>
       </c>
       <c r="AJ14" s="2">
-        <v>7.4403602456677618</v>
+        <v>7.4081198380172282</v>
       </c>
       <c r="AK14" s="2">
         <f t="shared" si="9"/>
         <v>2346.19140625</v>
       </c>
       <c r="AL14" s="2">
-        <v>3.0014109301166627</v>
+        <v>2.9653740836208726</v>
       </c>
       <c r="AM14" s="2">
         <f t="shared" si="10"/>
-        <v>-4.3313522346436191</v>
+        <v>-4.3974423763489101</v>
       </c>
       <c r="AN14" s="2">
         <f t="shared" si="11"/>
-        <v>22.331578565352718</v>
+        <v>21.967846576013944</v>
       </c>
       <c r="AO14" s="2">
         <f t="shared" si="12"/>
@@ -24322,17 +24322,17 @@
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
       <c r="F15" s="6" t="s">
         <v>179</v>
       </c>
       <c r="G15" s="6">
         <f>G14/$C$73</f>
-        <v>0.21097712507276808</v>
+        <v>0.21179586049857799</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>122</v>
@@ -24342,7 +24342,7 @@
       </c>
       <c r="K15" s="6">
         <f xml:space="preserve"> 1000 * K10 / ($C$60 * $C$61 * $C$62)</f>
-        <v>624.84032601840784</v>
+        <v>625.06222910535109</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>7</v>
@@ -24352,42 +24352,42 @@
       </c>
       <c r="O15" s="6">
         <f>O4/O14</f>
-        <v>14.950706542648515</v>
+        <v>14.941674567636827</v>
       </c>
       <c r="U15" s="2">
         <v>11</v>
       </c>
       <c r="V15" s="2">
         <f t="shared" si="7"/>
-        <v>0.97119140625</v>
+        <v>0.96826171875</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="0"/>
-        <v>1.8345419651910611E-4</v>
+        <v>4.3651136863775974E-5</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="8"/>
-        <v>0.9716796875</v>
+        <v>0.96875</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>-3.1467984557709272E-4</v>
+        <v>-4.5481763885679705E-4</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="3"/>
-        <v>0.971435546875</v>
+        <v>0.968505859375</v>
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="2"/>
-        <v>-6.5614049086337722E-5</v>
+        <v>-2.0558452101016034E-4</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="4"/>
-        <v>-1.2037172655499276E-8</v>
+        <v>-8.973998063688337E-9</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="5"/>
-        <v>2.0647418834176536E-8</v>
+        <v>9.3503466431346707E-8</v>
       </c>
       <c r="AD15" s="2">
         <f t="shared" si="6"/>
@@ -24401,29 +24401,29 @@
         <v>2336.9140625</v>
       </c>
       <c r="AH15" s="2">
-        <v>-1.4431053712712583</v>
+        <v>-1.4829300629010049</v>
       </c>
       <c r="AI15" s="2">
         <f t="shared" si="14"/>
         <v>2346.19140625</v>
       </c>
       <c r="AJ15" s="2">
-        <v>3.0014109301166627</v>
+        <v>2.9653740836208726</v>
       </c>
       <c r="AK15" s="2">
         <f t="shared" si="9"/>
         <v>2341.552734375</v>
       </c>
       <c r="AL15" s="2">
-        <v>0.77984829567435554</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AM15" s="2">
         <f t="shared" si="10"/>
-        <v>-1.1254032642643987</v>
+        <v>-1.1002098949536041</v>
       </c>
       <c r="AN15" s="2">
         <f t="shared" si="11"/>
-        <v>2.3406451984698617</v>
+        <v>2.2000591873201882</v>
       </c>
       <c r="AO15" s="2">
         <f t="shared" si="12"/>
@@ -24446,7 +24446,7 @@
       </c>
       <c r="G16" s="6">
         <f>O20</f>
-        <v>1533.8762357317341</v>
+        <v>1534.8666402380804</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>20</v>
@@ -24456,7 +24456,7 @@
       </c>
       <c r="K16" s="6">
         <f xml:space="preserve"> $C$78 * ( $C$21 * (0.0095 * MAX(G7,G26) - 1.9275) +  $C$28 * (0.0095 * MAX(O20) - 1.9275) )</f>
-        <v>172.08338622546577</v>
+        <v>172.09809119823018</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>7</v>
@@ -24466,42 +24466,42 @@
       </c>
       <c r="O16" s="6">
         <f>(O13*$C$12)/(0.3048^2)/($C$5*2.20462/1000)^(2/3)</f>
-        <v>2.438914573661604</v>
+        <v>2.4404223521337154</v>
       </c>
       <c r="U16" s="2">
         <v>12</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" si="7"/>
-        <v>0.97119140625</v>
+        <v>0.96826171875</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="0"/>
-        <v>1.8345419651910611E-4</v>
+        <v>4.3651136863775974E-5</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="8"/>
-        <v>0.971435546875</v>
+        <v>0.968505859375</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="1"/>
-        <v>-6.5614049086337722E-5</v>
+        <v>-2.0558452101016034E-4</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="3"/>
-        <v>0.9713134765625</v>
+        <v>0.9683837890625</v>
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="2"/>
-        <v>5.8919767463305739E-5</v>
+        <v>-8.0967009694954406E-5</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="4"/>
-        <v>1.0809078599073324E-8</v>
+        <v>-3.5343020216451311E-9</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="5"/>
-        <v>-3.8659645144929471E-9</v>
+        <v>1.664556390576221E-8</v>
       </c>
       <c r="AD16" s="2">
         <f t="shared" si="6"/>
@@ -24515,29 +24515,29 @@
         <v>2336.9140625</v>
       </c>
       <c r="AH16" s="2">
-        <v>-1.4431053712712583</v>
+        <v>-1.4829300629010049</v>
       </c>
       <c r="AI16" s="2">
         <f t="shared" si="14"/>
         <v>2341.552734375</v>
       </c>
       <c r="AJ16" s="2">
-        <v>0.77984829567435554</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK16" s="2">
         <f t="shared" si="9"/>
         <v>2339.2333984375</v>
       </c>
       <c r="AL16" s="2">
-        <v>-0.33145477409607338</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AM16" s="2">
         <f t="shared" si="10"/>
-        <v>0.478324164831545</v>
+        <v>0.54917821562078917</v>
       </c>
       <c r="AN16" s="2">
         <f t="shared" si="11"/>
-        <v>-0.25848444067195137</v>
+        <v>-0.2747562049365122</v>
       </c>
       <c r="AO16" s="2">
         <f t="shared" si="12"/>
@@ -24560,7 +24560,7 @@
       </c>
       <c r="G17" s="6">
         <f xml:space="preserve"> 1/1000 * (O25 + O20 * (O30 * O27 + $C$7 * SIN(O19/180*PI())))</f>
-        <v>107.68869659461498</v>
+        <v>107.79022508106384</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>101</v>
@@ -24579,35 +24579,35 @@
       </c>
       <c r="V17" s="2">
         <f t="shared" si="7"/>
-        <v>0.9713134765625</v>
+        <v>0.96826171875</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="0"/>
-        <v>5.8919767463305739E-5</v>
+        <v>4.3651136863775974E-5</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="8"/>
-        <v>0.971435546875</v>
+        <v>0.9683837890625</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="1"/>
-        <v>-6.5614049086337722E-5</v>
+        <v>-8.0967009694954406E-5</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="3"/>
-        <v>0.97137451171875</v>
+        <v>0.96832275390625</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="2"/>
-        <v>-3.3472173605053612E-6</v>
+        <v>-1.865801583578186E-5</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="4"/>
-        <v>-1.972172685301159E-10</v>
+        <v>-8.1444360285421342E-10</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="5"/>
-        <v>2.1962448419484055E-10</v>
+        <v>1.5106837490643627E-9</v>
       </c>
       <c r="AD17" s="2">
         <f t="shared" si="6"/>
@@ -24621,29 +24621,29 @@
         <v>2339.2333984375</v>
       </c>
       <c r="AH17" s="2">
-        <v>-0.33145477409607338</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI17" s="2">
         <f t="shared" si="14"/>
         <v>2341.552734375</v>
       </c>
       <c r="AJ17" s="2">
-        <v>0.77984829567435554</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK17" s="2">
         <f t="shared" si="9"/>
         <v>2340.39306640625</v>
       </c>
       <c r="AL17" s="2">
-        <v>0.22424041879639844</v>
+        <v>0.18583510532175751</v>
       </c>
       <c r="AM17" s="2">
         <f t="shared" si="10"/>
-        <v>-7.4325557355369137E-2</v>
+        <v>-6.8820906726143535E-2</v>
       </c>
       <c r="AN17" s="2">
         <f t="shared" si="11"/>
-        <v>0.17487350841967506</v>
+        <v>0.13787408241273996</v>
       </c>
       <c r="AO17" s="2">
         <f t="shared" si="12"/>
@@ -24662,7 +24662,7 @@
       </c>
       <c r="G18" s="6">
         <f xml:space="preserve"> (G16/$C$74*1000) / (G17*1000)</f>
-        <v>1.4533478998610141</v>
+        <v>1.4529165041801952</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>147</v>
@@ -24672,50 +24672,50 @@
       </c>
       <c r="K18" s="6">
         <f xml:space="preserve"> $C$78 * (0.2138 * K4 + 0.2138 * K6)</f>
-        <v>108.52211486997089</v>
+        <v>108.43895222791221</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="32" t="s">
+      <c r="N18" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
       <c r="V18" s="2">
         <f t="shared" si="7"/>
-        <v>0.9713134765625</v>
+        <v>0.96826171875</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="0"/>
-        <v>5.8919767463305739E-5</v>
+        <v>4.3651136863775974E-5</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" si="8"/>
-        <v>0.97137451171875</v>
+        <v>0.96832275390625</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="1"/>
-        <v>-3.3472173605053612E-6</v>
+        <v>-1.865801583578186E-5</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="3"/>
-        <v>0.971343994140625</v>
+        <v>0.968292236328125</v>
       </c>
       <c r="AA18" s="2">
         <f t="shared" si="2"/>
-        <v>2.778625591237649E-5</v>
+        <v>1.2496540657047639E-5</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="4"/>
-        <v>1.6371597370331269E-9</v>
+        <v>5.4548820654452747E-10</v>
       </c>
       <c r="AC18" s="2">
         <f t="shared" si="5"/>
-        <v>-9.3006638173351319E-11</v>
+        <v>-2.331606534716867E-10</v>
       </c>
       <c r="AD18" s="2">
         <f t="shared" si="6"/>
@@ -24729,29 +24729,29 @@
         <v>2339.2333984375</v>
       </c>
       <c r="AH18" s="2">
-        <v>-0.33145477409607338</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI18" s="2">
         <f t="shared" si="14"/>
         <v>2340.39306640625</v>
       </c>
       <c r="AJ18" s="2">
-        <v>0.22424041879639844</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK18" s="2">
         <f t="shared" si="9"/>
         <v>2339.813232421875</v>
       </c>
       <c r="AL18" s="2">
-        <v>-5.3596193386738378E-2</v>
+        <v>0.46388663870584423</v>
       </c>
       <c r="AM18" s="2">
         <f t="shared" si="10"/>
-        <v>1.7764714171410831E-2</v>
+        <v>-0.17179261710861132</v>
       </c>
       <c r="AN18" s="2">
         <f t="shared" si="11"/>
-        <v>-1.2018432850934974E-2</v>
+        <v>0.3441650303066302</v>
       </c>
       <c r="AO18" s="2">
         <f t="shared" si="12"/>
@@ -24764,14 +24764,14 @@
       </c>
       <c r="G19" s="6">
         <f>O23 / ($C$29*$C$11/PI())</f>
-        <v>4.5300662091238869E-2</v>
+        <v>4.6556720070065512E-2</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>77</v>
       </c>
       <c r="K19" s="6">
         <f xml:space="preserve"> $C$78 * (0.1149 * K4 + 0.1149 * K6)</f>
-        <v>58.321753968941337</v>
+        <v>58.277060855879853</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>7</v>
@@ -24791,35 +24791,35 @@
       </c>
       <c r="V19" s="2">
         <f t="shared" si="7"/>
-        <v>0.971343994140625</v>
+        <v>0.968292236328125</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="0"/>
-        <v>2.778625591237649E-5</v>
+        <v>1.2496540657047639E-5</v>
       </c>
       <c r="X19" s="2">
         <f t="shared" si="8"/>
-        <v>0.97137451171875</v>
+        <v>0.96832275390625</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="1"/>
-        <v>-3.3472173605053612E-6</v>
+        <v>-1.865801583578186E-5</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="3"/>
-        <v>0.9713592529296875</v>
+        <v>0.9683074951171875</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" si="2"/>
-        <v>1.2219514491373928E-5</v>
+        <v>-3.0807425533962984E-6</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="4"/>
-        <v>3.3953455678230899E-10</v>
+        <v>-3.8498624572413601E-11</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="5"/>
-        <v>-4.0901371042473655E-11</v>
+        <v>5.7480543347235178E-11</v>
       </c>
       <c r="AD19" s="2">
         <f t="shared" si="6"/>
@@ -24830,32 +24830,32 @@
       </c>
       <c r="AG19" s="2">
         <f t="shared" si="13"/>
-        <v>2339.813232421875</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH19" s="2">
-        <v>-5.3596193386738378E-2</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI19" s="2">
         <f t="shared" si="14"/>
-        <v>2340.39306640625</v>
+        <v>2339.813232421875</v>
       </c>
       <c r="AJ19" s="2">
-        <v>0.22424041879639844</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK19" s="2">
         <f t="shared" si="9"/>
-        <v>2340.1031494140625</v>
+        <v>2339.5233154296875</v>
       </c>
       <c r="AL19" s="2">
-        <v>8.5324788377647565E-2</v>
+        <v>0.60290410951938611</v>
       </c>
       <c r="AM19" s="2">
         <f t="shared" si="10"/>
-        <v>-4.5730838585709256E-3</v>
+        <v>-0.22327540006072458</v>
       </c>
       <c r="AN19" s="2">
         <f t="shared" si="11"/>
-        <v>1.9133266279517759E-2</v>
+        <v>0.44730434940659841</v>
       </c>
       <c r="AO19" s="2">
         <f t="shared" si="12"/>
@@ -24863,17 +24863,17 @@
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
       <c r="F20" s="26" t="s">
         <v>132</v>
       </c>
       <c r="G20" s="25">
         <f xml:space="preserve"> $C$28 * G17</f>
-        <v>107.68869659461498</v>
+        <v>107.79022508106384</v>
       </c>
       <c r="H20" s="25" t="s">
         <v>101</v>
@@ -24883,7 +24883,7 @@
       </c>
       <c r="K20" s="6">
         <f xml:space="preserve"> $C$79 * (14.86 * ($C$5*2.20462)^0.144 * ($C$36/(PI()*$C$37))^0.778 * ($C$36*3.28084)^0.383 * $C$35^0.455 * 0.453592)</f>
-        <v>216.82558950030395</v>
+        <v>216.82687524729317</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>7</v>
@@ -24893,7 +24893,7 @@
       </c>
       <c r="O20" s="6">
         <f xml:space="preserve"> O14 / $C$28</f>
-        <v>1533.8762357317341</v>
+        <v>1534.8666402380804</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>20</v>
@@ -24903,35 +24903,35 @@
       </c>
       <c r="V20" s="2">
         <f t="shared" si="7"/>
-        <v>0.9713592529296875</v>
+        <v>0.968292236328125</v>
       </c>
       <c r="W20" s="2">
         <f t="shared" si="0"/>
-        <v>1.2219514491373928E-5</v>
+        <v>1.2496540657047639E-5</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" si="8"/>
-        <v>0.97137451171875</v>
+        <v>0.9683074951171875</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="1"/>
-        <v>-3.3472173605053612E-6</v>
+        <v>-3.0807425533962984E-6</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="3"/>
-        <v>0.97136688232421875</v>
+        <v>0.96829986572265625</v>
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="2"/>
-        <v>4.436147369335508E-6</v>
+        <v>4.7078978108183733E-6</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="4"/>
-        <v>5.4207567065465572E-11</v>
+        <v>5.8832436402117378E-11</v>
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="5"/>
-        <v>-1.4848749488400001E-11</v>
+        <v>-1.4503821122829439E-11</v>
       </c>
       <c r="AD20" s="2">
         <f t="shared" si="6"/>
@@ -24942,32 +24942,32 @@
       </c>
       <c r="AG20" s="2">
         <f t="shared" si="13"/>
-        <v>2339.813232421875</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH20" s="2">
-        <v>-5.3596193386738378E-2</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI20" s="2">
         <f t="shared" si="14"/>
-        <v>2340.1031494140625</v>
+        <v>2339.5233154296875</v>
       </c>
       <c r="AJ20" s="2">
-        <v>8.5324788377647565E-2</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK20" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9581909179688</v>
+        <v>2339.3783569335938</v>
       </c>
       <c r="AL20" s="2">
-        <v>1.5864966404024017E-2</v>
+        <v>0.67241084193324241</v>
       </c>
       <c r="AM20" s="2">
         <f t="shared" si="10"/>
-        <v>-8.5030180746417856E-4</v>
+        <v>-0.24901604976203248</v>
       </c>
       <c r="AN20" s="2">
         <f t="shared" si="11"/>
-        <v>1.3536749010418375E-3</v>
+        <v>0.49887252290361256</v>
       </c>
       <c r="AO20" s="2">
         <f t="shared" si="12"/>
@@ -24986,7 +24986,7 @@
       </c>
       <c r="K21" s="6">
         <f xml:space="preserve"> $C$79 * C41 * $C$5</f>
-        <v>60.837978210089609</v>
+        <v>60.840483539954825</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>7</v>
@@ -24996,7 +24996,7 @@
       </c>
       <c r="O21" s="6">
         <f>$C$6*2*PI()/60</f>
-        <v>43.945843632476112</v>
+        <v>44.882883557565592</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>27</v>
@@ -25006,35 +25006,35 @@
       </c>
       <c r="V21" s="2">
         <f t="shared" si="7"/>
-        <v>0.97136688232421875</v>
+        <v>0.96829986572265625</v>
       </c>
       <c r="W21" s="2">
         <f t="shared" si="0"/>
-        <v>4.436147369335508E-6</v>
+        <v>4.7078978108183733E-6</v>
       </c>
       <c r="X21" s="2">
         <f t="shared" si="8"/>
-        <v>0.97137451171875</v>
+        <v>0.9683074951171875</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="1"/>
-        <v>-3.3472173605053612E-6</v>
+        <v>-3.0807425533962984E-6</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="3"/>
-        <v>0.97137069702148438</v>
+        <v>0.96830368041992188</v>
       </c>
       <c r="AA21" s="2">
         <f t="shared" si="2"/>
-        <v>5.4446470532099056E-7</v>
+        <v>8.1357731840370207E-7</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="4"/>
-        <v>2.4153256702057447E-12</v>
+        <v>3.8302388762442713E-12</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="5"/>
-        <v>-1.8224417138328552E-12</v>
+        <v>-2.5064222652843346E-12</v>
       </c>
       <c r="AD21" s="2">
         <f t="shared" si="6"/>
@@ -25045,32 +25045,32 @@
       </c>
       <c r="AG21" s="2">
         <f t="shared" si="13"/>
-        <v>2339.813232421875</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH21" s="2">
-        <v>-5.3596193386738378E-2</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI21" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9581909179688</v>
+        <v>2339.3783569335938</v>
       </c>
       <c r="AJ21" s="2">
-        <v>1.5864966404024017E-2</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK21" s="2">
         <f t="shared" si="9"/>
-        <v>2339.8857116699219</v>
+        <v>2339.3058776855469</v>
       </c>
       <c r="AL21" s="2">
-        <v>-1.8865728196715281E-2</v>
+        <v>0.7071639916332515</v>
       </c>
       <c r="AM21" s="2">
         <f t="shared" si="10"/>
-        <v>1.0111312168127953E-3</v>
+        <v>-0.26188629443298922</v>
       </c>
       <c r="AN21" s="2">
         <f t="shared" si="11"/>
-        <v>-2.9930414402833653E-4</v>
+        <v>0.5246564490221205</v>
       </c>
       <c r="AO21" s="2">
         <f t="shared" si="12"/>
@@ -25084,17 +25084,17 @@
       <c r="C22" s="17">
         <v>2</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
       <c r="J22" s="14" t="s">
         <v>182</v>
       </c>
       <c r="K22" s="6">
         <f xml:space="preserve"> $C$79 * (0.04674 * ($C$5*2.20462)^0.397 * ($C$12*3.28084^2)^0.36 * $C$46^0.397 * $C$13^1.712 * 0.453592)</f>
-        <v>328.82462535547126</v>
+        <v>328.82371231715831</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>7</v>
@@ -25104,42 +25104,42 @@
       </c>
       <c r="O22" s="6">
         <f xml:space="preserve"> $C$7 * COS(O19/180*PI()) / (O21 * $C$10)</f>
-        <v>8.3256296344403652E-2</v>
+        <v>8.2934453986019369E-2</v>
       </c>
       <c r="U22" s="2">
         <v>18</v>
       </c>
       <c r="V22" s="2">
         <f t="shared" si="7"/>
-        <v>0.97137069702148438</v>
+        <v>0.96830368041992188</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" si="0"/>
-        <v>5.4446470532099056E-7</v>
+        <v>8.1357731840370207E-7</v>
       </c>
       <c r="X22" s="2">
         <f t="shared" si="8"/>
-        <v>0.97137451171875</v>
+        <v>0.9683074951171875</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="1"/>
-        <v>-3.3472173605053612E-6</v>
+        <v>-3.0807425533962984E-6</v>
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="3"/>
-        <v>0.97137260437011719</v>
+        <v>0.96830558776855469</v>
       </c>
       <c r="AA22" s="2">
         <f t="shared" si="2"/>
-        <v>-1.401376402365706E-6</v>
+        <v>-1.1335826950453765E-6</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="4"/>
-        <v>-7.6299998995783408E-13</v>
+        <v>-9.2225716922385891E-13</v>
       </c>
       <c r="AC22" s="2">
         <f t="shared" si="5"/>
-        <v>4.690711422601038E-12</v>
+        <v>3.4922764464199507E-12</v>
       </c>
       <c r="AD22" s="2">
         <f t="shared" si="6"/>
@@ -25150,32 +25150,32 @@
       </c>
       <c r="AG22" s="2">
         <f t="shared" si="13"/>
-        <v>2339.8857116699219</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH22" s="2">
-        <v>-1.8865728196715281E-2</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI22" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9581909179688</v>
+        <v>2339.3058776855469</v>
       </c>
       <c r="AJ22" s="2">
-        <v>1.5864966404024017E-2</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK22" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9219512939453</v>
+        <v>2339.2696380615234</v>
       </c>
       <c r="AL22" s="2">
-        <v>-1.5000571572727495E-3</v>
+        <v>0.72454015704329322</v>
       </c>
       <c r="AM22" s="2">
         <f t="shared" si="10"/>
-        <v>2.829967060864508E-5</v>
+        <v>-0.26832126513926141</v>
       </c>
       <c r="AN22" s="2">
         <f t="shared" si="11"/>
-        <v>-2.379835640424794E-5</v>
+        <v>0.53754810831121713</v>
       </c>
       <c r="AO22" s="2">
         <f t="shared" si="12"/>
@@ -25205,7 +25205,7 @@
       </c>
       <c r="K23" s="6">
         <f xml:space="preserve"> $C$79 * (3.184 * ($C$5*2.20462)^0.887 * ($C$50*3.28084*3.28084)^0.101 * ($C$49)^0.138 ) / ( 174.04 * ($C$51*3.28084)^0.223 ) * 0.453592</f>
-        <v>26.217726198051963</v>
+        <v>26.218683850174475</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>7</v>
@@ -25215,42 +25215,42 @@
       </c>
       <c r="O23" s="6">
         <f xml:space="preserve"> O20 / ( $C$71 * PI() * $C$10^2 * O21^2 * $C$10^2)</f>
-        <v>3.8504787641392951E-2</v>
+        <v>3.9572415431083703E-2</v>
       </c>
       <c r="U23" s="2">
         <v>19</v>
       </c>
       <c r="V23" s="2">
         <f t="shared" si="7"/>
-        <v>0.97137069702148438</v>
+        <v>0.96830368041992188</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="0"/>
-        <v>5.4446470532099056E-7</v>
+        <v>8.1357731840370207E-7</v>
       </c>
       <c r="X23" s="2">
         <f t="shared" si="8"/>
-        <v>0.97137260437011719</v>
+        <v>0.96830558776855469</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="1"/>
-        <v>-1.401376402365706E-6</v>
+        <v>-1.1335826950453765E-6</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="3"/>
-        <v>0.97137165069580078</v>
+        <v>0.96830463409423828</v>
       </c>
       <c r="AA23" s="2">
         <f t="shared" si="2"/>
-        <v>-4.2845586722961571E-7</v>
+        <v>-1.6000270763871782E-7</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="4"/>
-        <v>-2.3327909749422216E-13</v>
+        <v>-1.3017457381803959E-13</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="5"/>
-        <v>6.0042794179071742E-13</v>
+        <v>1.8137630053965519E-13</v>
       </c>
       <c r="AD23" s="2">
         <f t="shared" si="6"/>
@@ -25261,32 +25261,32 @@
       </c>
       <c r="AG23" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9219512939453</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH23" s="2">
-        <v>-1.5000571572727495E-3</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI23" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9581909179688</v>
+        <v>2339.2696380615234</v>
       </c>
       <c r="AJ23" s="2">
-        <v>1.5864966404024017E-2</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK23" s="2">
         <f t="shared" si="9"/>
-        <v>2339.940071105957</v>
+        <v>2339.2515182495117</v>
       </c>
       <c r="AL23" s="2">
-        <v>7.1824650747203123E-3</v>
+        <v>0.73322820845010028</v>
       </c>
       <c r="AM23" s="2">
         <f t="shared" si="10"/>
-        <v>-1.0774108142195757E-5</v>
+        <v>-0.27153873890163027</v>
       </c>
       <c r="AN23" s="2">
         <f t="shared" si="11"/>
-        <v>1.1394956710851361E-4</v>
+        <v>0.54399391473511249</v>
       </c>
       <c r="AO23" s="2">
         <f t="shared" si="12"/>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K24" s="6">
         <f xml:space="preserve"> $C$79 * ( 1.68 * ($C$5*2.20462)^0.567 * ($C$55*3.28084*3.28084)^1.249 * ($C$54)^0.482 ) / (639.95 * ($C$56*3.28084)^0.747 * (COS($C$57/180*PI()))^0.882 ) * 0.453592</f>
-        <v>8.9720679554319105</v>
+        <v>8.9722774447503628</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>7</v>
@@ -25331,35 +25331,35 @@
       </c>
       <c r="V24" s="2">
         <f t="shared" si="7"/>
-        <v>0.97137069702148438</v>
+        <v>0.96830368041992188</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="0"/>
-        <v>5.4446470532099056E-7</v>
+        <v>8.1357731840370207E-7</v>
       </c>
       <c r="X24" s="2">
         <f t="shared" si="8"/>
-        <v>0.97137165069580078</v>
+        <v>0.96830463409423828</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="1"/>
-        <v>-4.2845586722961571E-7</v>
+        <v>-1.6000270763871782E-7</v>
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="3"/>
-        <v>0.97137117385864258</v>
+        <v>0.96830415725708008</v>
       </c>
       <c r="AA24" s="2">
         <f t="shared" si="2"/>
-        <v>5.8004414382750724E-8</v>
+        <v>3.2678730055302196E-7</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="4"/>
-        <v>3.1581356384221001E-14</v>
+        <v>2.6586673567231222E-13</v>
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="5"/>
-        <v>-2.4852331667507456E-14</v>
+        <v>-5.2286852910430987E-14</v>
       </c>
       <c r="AD24" s="2">
         <f t="shared" si="6"/>
@@ -25370,32 +25370,32 @@
       </c>
       <c r="AG24" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9219512939453</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH24" s="2">
-        <v>-1.5000571572727495E-3</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI24" s="2">
         <f t="shared" si="14"/>
-        <v>2339.940071105957</v>
+        <v>2339.2515182495117</v>
       </c>
       <c r="AJ24" s="2">
-        <v>7.1824650747203123E-3</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK24" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9310111999512</v>
+        <v>2339.2424583435059</v>
       </c>
       <c r="AL24" s="2">
-        <v>2.8412065717020596E-3</v>
+        <v>0.73757222632889352</v>
       </c>
       <c r="AM24" s="2">
         <f t="shared" si="10"/>
-        <v>-4.261972253172046E-6</v>
+        <v>-0.27314747288510183</v>
       </c>
       <c r="AN24" s="2">
         <f t="shared" si="11"/>
-        <v>2.0406866971315875E-5</v>
+        <v>0.54721681214185469</v>
       </c>
       <c r="AO24" s="2">
         <f t="shared" si="12"/>
@@ -25427,7 +25427,7 @@
       </c>
       <c r="K25" s="6">
         <f>$C$79*(0.14*$G$10*1000/745.7)*0.453592</f>
-        <v>21.480478956132433</v>
+        <v>21.451479098236028</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>7</v>
@@ -25437,7 +25437,7 @@
       </c>
       <c r="O25" s="6">
         <f xml:space="preserve"> ($C$30 * $O$24 / 8) * (1 + 4.65 * O22^2) * ( PI() * $C$71 * O21^3 * $C$10^5)</f>
-        <v>2729.4784391033259</v>
+        <v>2667.2247409991669</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>18</v>
@@ -25447,35 +25447,35 @@
       </c>
       <c r="V25" s="2">
         <f t="shared" si="7"/>
-        <v>0.97137117385864258</v>
+        <v>0.96830415725708008</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="0"/>
-        <v>5.8004414382750724E-8</v>
+        <v>3.2678730055302196E-7</v>
       </c>
       <c r="X25" s="2">
         <f t="shared" si="8"/>
-        <v>0.97137165069580078</v>
+        <v>0.96830463409423828</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="1"/>
-        <v>-4.2845586722961571E-7</v>
+        <v>-1.6000270763871782E-7</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="3"/>
-        <v>0.97137141227722168</v>
+        <v>0.96830439567565918</v>
       </c>
       <c r="AA25" s="2">
         <f t="shared" si="2"/>
-        <v>-1.8522572753365552E-7</v>
+        <v>8.3392295180395593E-8</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="4"/>
-        <v>-1.0743909854208634E-14</v>
+        <v>2.725154302892226E-14</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="5"/>
-        <v>7.9361049723668881E-14</v>
+        <v>-1.3342993025070494E-14</v>
       </c>
       <c r="AD25" s="2">
         <f t="shared" si="6"/>
@@ -25486,32 +25486,32 @@
       </c>
       <c r="AG25" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9219512939453</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH25" s="2">
-        <v>-1.5000571572727495E-3</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI25" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9310111999512</v>
+        <v>2339.2424583435059</v>
       </c>
       <c r="AJ25" s="2">
-        <v>2.8412065717020596E-3</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK25" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9264812469482</v>
+        <v>2339.2379283905029</v>
       </c>
       <c r="AL25" s="2">
-        <v>6.7029342631030886E-4</v>
+        <v>0.73974423331196704</v>
       </c>
       <c r="AM25" s="2">
         <f t="shared" si="10"/>
-        <v>-1.005478451609653E-6</v>
+        <v>-0.27395183915234628</v>
       </c>
       <c r="AN25" s="2">
         <f t="shared" si="11"/>
-        <v>1.9044420878015397E-6</v>
+        <v>0.54882825939379787</v>
       </c>
       <c r="AO25" s="2">
         <f t="shared" si="12"/>
@@ -25524,7 +25524,7 @@
       </c>
       <c r="G26" s="6">
         <f xml:space="preserve"> $C$5 * $C$68 / $C$21</f>
-        <v>2866.8409018734305</v>
+        <v>2866.9589594148151</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>20</v>
@@ -25534,7 +25534,7 @@
       </c>
       <c r="K26" s="6">
         <f xml:space="preserve"> $C$80 * (0.0268 * $C$5)</f>
-        <v>50.167932800935432</v>
+        <v>50.16999873448583</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>7</v>
@@ -25544,42 +25544,42 @@
       </c>
       <c r="O26" s="18">
         <f>Z34</f>
-        <v>0.97137123113498092</v>
+        <v>0.96830447716638446</v>
       </c>
       <c r="U26" s="2">
         <v>22</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" si="7"/>
-        <v>0.97137117385864258</v>
+        <v>0.96830439567565918</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="0"/>
-        <v>5.8004414382750724E-8</v>
+        <v>8.3392295180395593E-8</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" si="8"/>
-        <v>0.97137141227722168</v>
+        <v>0.96830463409423828</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="1"/>
-        <v>-1.8522572753365552E-7</v>
+        <v>-1.6000270763871782E-7</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="3"/>
-        <v>0.97137129306793213</v>
+        <v>0.96830451488494873</v>
       </c>
       <c r="AA26" s="2">
         <f t="shared" si="2"/>
-        <v>-6.3610656853008152E-8</v>
+        <v>-3.8305206562228022E-8</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="4"/>
-        <v>-3.689698899260847E-15</v>
+        <v>-3.1943590925833454E-15</v>
       </c>
       <c r="AC26" s="2">
         <f t="shared" si="5"/>
-        <v>1.1782330194492145E-14</v>
+        <v>6.1289367666168654E-15</v>
       </c>
       <c r="AD26" s="2">
         <f t="shared" si="6"/>
@@ -25590,32 +25590,32 @@
       </c>
       <c r="AG26" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9219512939453</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH26" s="2">
-        <v>-1.5000571572727495E-3</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI26" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9264812469482</v>
+        <v>2339.2379283905029</v>
       </c>
       <c r="AJ26" s="2">
-        <v>6.7029342631030886E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK26" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9242162704468</v>
+        <v>2339.2356634140015</v>
       </c>
       <c r="AL26" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>0.74083052056926135</v>
       </c>
       <c r="AM26" s="2">
         <f t="shared" si="10"/>
-        <v>6.2276918333227187E-7</v>
+        <v>-0.27435412737384568</v>
       </c>
       <c r="AN26" s="2">
         <f t="shared" si="11"/>
-        <v>-2.7828145592478931E-7</v>
+        <v>0.54963419355019305</v>
       </c>
       <c r="AO26" s="2">
         <f t="shared" si="12"/>
@@ -25623,17 +25623,17 @@
       </c>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
       <c r="F27" t="s">
         <v>97</v>
       </c>
       <c r="G27" s="6">
         <f>G29/$C$21</f>
-        <v>34.215382138924909</v>
+        <v>34.161408901572592</v>
       </c>
       <c r="H27" t="s">
         <v>101</v>
@@ -25643,7 +25643,7 @@
       </c>
       <c r="K27" s="6">
         <f xml:space="preserve"> $C$80 * (11.5 * ($C$5*2.20462/1000)^0.4 * 0.453592)</f>
-        <v>8.0439114451963967</v>
+        <v>8.0440439440282567</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>7</v>
@@ -25653,7 +25653,7 @@
       </c>
       <c r="O27" s="6">
         <f xml:space="preserve"> O21 * $C$10 * O26 - $C$7 * SIN(O19/180*PI())</f>
-        <v>1.3862025520468251</v>
+        <v>1.434703482651102</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>10</v>
@@ -25663,35 +25663,35 @@
       </c>
       <c r="V27" s="2">
         <f t="shared" si="7"/>
-        <v>0.97137117385864258</v>
+        <v>0.96830439567565918</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="0"/>
-        <v>5.8004414382750724E-8</v>
+        <v>8.3392295180395593E-8</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" si="8"/>
-        <v>0.97137129306793213</v>
+        <v>0.96830451488494873</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" si="1"/>
-        <v>-6.3610656853008152E-8</v>
+        <v>-3.8305206562228022E-8</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="3"/>
-        <v>0.97137123346328735</v>
+        <v>0.96830445528030396</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" si="2"/>
-        <v>-2.803121290639865E-9</v>
+        <v>2.2543544253572634E-8</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="4"/>
-        <v>-1.6259340890738576E-16</v>
+        <v>1.8799578968062401E-15</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="5"/>
-        <v>1.7830838653625379E-16</v>
+        <v>-8.6353511927782833E-16</v>
       </c>
       <c r="AD27" s="2">
         <f t="shared" si="6"/>
@@ -25702,32 +25702,32 @@
       </c>
       <c r="AG27" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9242162704468</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH27" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI27" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9264812469482</v>
+        <v>2339.2356634140015</v>
       </c>
       <c r="AJ27" s="2">
-        <v>6.7029342631030886E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK27" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2345309257507</v>
       </c>
       <c r="AL27" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74137337982097051</v>
       </c>
       <c r="AM27" s="2">
         <f t="shared" si="10"/>
-        <v>-5.3077371323022012E-8</v>
+        <v>-0.27455516617037778</v>
       </c>
       <c r="AN27" s="2">
         <f t="shared" si="11"/>
-        <v>8.5694916450142915E-8</v>
+        <v>0.55003694964452243</v>
       </c>
       <c r="AO27" s="2">
         <f t="shared" si="12"/>
@@ -25746,7 +25746,7 @@
       </c>
       <c r="G28" s="6">
         <f xml:space="preserve"> (G26/$C$68*1000) / (G27*1000)</f>
-        <v>8.548502503014582</v>
+        <v>8.5623612759676373</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>147</v>
@@ -25756,7 +25756,7 @@
       </c>
       <c r="K28" s="6">
         <f xml:space="preserve"> $C$80 * (8 * ($C$5/1000))</f>
-        <v>14.975502328637441</v>
+        <v>14.976119025219649</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>7</v>
@@ -25766,42 +25766,42 @@
       </c>
       <c r="O28" s="6">
         <f xml:space="preserve"> 1/$C$31 - O25 * SQRT( (2*$C$71*PI()*$C$10^2) / O20^3 )</f>
-        <v>1.150636753940697</v>
+        <v>1.158022392701505</v>
       </c>
       <c r="U28" s="2">
         <v>24</v>
       </c>
       <c r="V28" s="2">
         <f t="shared" si="7"/>
-        <v>0.97137117385864258</v>
+        <v>0.96830445528030396</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="0"/>
-        <v>5.8004414382750724E-8</v>
+        <v>2.2543544253572634E-8</v>
       </c>
       <c r="X28" s="2">
         <f t="shared" si="8"/>
-        <v>0.97137123346328735</v>
+        <v>0.96830451488494873</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="1"/>
-        <v>-2.803121290639865E-9</v>
+        <v>-3.8305206562228022E-8</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="3"/>
-        <v>0.97137120366096497</v>
+        <v>0.96830448508262634</v>
       </c>
       <c r="AA28" s="2">
         <f t="shared" si="2"/>
-        <v>2.760064654605543E-8</v>
+        <v>-7.8808310988165431E-9</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="4"/>
-        <v>1.6009593394892366E-15</v>
+        <v>-1.7766186463110219E-16</v>
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="5"/>
-        <v>-7.7367959968673629E-17</v>
+        <v>3.0187686312219812E-16</v>
       </c>
       <c r="AD28" s="2">
         <f t="shared" si="6"/>
@@ -25812,32 +25812,32 @@
       </c>
       <c r="AG28" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9242162704468</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH28" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI28" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2345309257507</v>
       </c>
       <c r="AJ28" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK28" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9247825145721</v>
+        <v>2339.2339646816254</v>
       </c>
       <c r="AL28" s="2">
-        <v>-1.4365837273544457E-4</v>
+        <v>0.7416450936716501</v>
       </c>
       <c r="AM28" s="2">
         <f t="shared" si="10"/>
-        <v>5.9641732339022243E-8</v>
+        <v>-0.27465579082652897</v>
       </c>
       <c r="AN28" s="2">
         <f t="shared" si="11"/>
-        <v>-1.83662732852585E-8</v>
+        <v>0.55023853856270022</v>
       </c>
       <c r="AO28" s="2">
         <f t="shared" si="12"/>
@@ -25856,7 +25856,7 @@
       </c>
       <c r="G29" s="25">
         <f xml:space="preserve"> 1/1000 * IF( $G$23&gt;=2*SQRT(($C$5*$C$68)/(2*$C$65*$C$21*PI()*$C$8*$C$8)), ($C$5*$C$68)/$C$24 * ( ($G$23/2) - SQRT( ($G$23/2)^2 - ($C$5*$C$68)/(2*$C$65*$C$21*PI()*$C$8*$C$8 ) ) ), 1/$C$24 * SQRT(($C$5*$C$68)^3/(2*$C$65*$C$21*PI()*$C$8*$C$8)) )</f>
-        <v>273.72305711139927</v>
+        <v>273.29127121258074</v>
       </c>
       <c r="H29" s="25" t="s">
         <v>101</v>
@@ -25866,7 +25866,7 @@
       </c>
       <c r="K29" s="6">
         <f xml:space="preserve"> $C$80 * (13 * ($C$5*2.20462/1000)^1.3 * 0.453592)</f>
-        <v>39.810207750244324</v>
+        <v>39.812338981719464</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>7</v>
@@ -25882,35 +25882,35 @@
       </c>
       <c r="V29" s="2">
         <f t="shared" si="7"/>
-        <v>0.97137120366096497</v>
+        <v>0.96830445528030396</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="0"/>
-        <v>2.760064654605543E-8</v>
+        <v>2.2543544253572634E-8</v>
       </c>
       <c r="X29" s="2">
         <f t="shared" si="8"/>
-        <v>0.97137123346328735</v>
+        <v>0.96830448508262634</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="1"/>
-        <v>-2.803121290639865E-9</v>
+        <v>-7.8808310988165431E-9</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="3"/>
-        <v>0.97137121856212616</v>
+        <v>0.96830447018146515</v>
       </c>
       <c r="AA29" s="2">
         <f t="shared" si="2"/>
-        <v>1.2398762572196631E-8</v>
+        <v>7.3313565218668941E-9</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="4"/>
-        <v>3.4221386336366029E-16</v>
+        <v>1.6527476018942468E-16</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="5"/>
-        <v>-3.4755235343713073E-17</v>
+        <v>-5.7777182474040105E-17</v>
       </c>
       <c r="AD29" s="2">
         <f t="shared" si="6"/>
@@ -25921,32 +25921,32 @@
       </c>
       <c r="AG29" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9247825145721</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH29" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI29" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2339646816254</v>
       </c>
       <c r="AJ29" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK29" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9250656366348</v>
+        <v>2339.2336815595627</v>
       </c>
       <c r="AL29" s="2">
-        <v>-2.7941100165662647E-4</v>
+        <v>0.74178038207855934</v>
       </c>
       <c r="AM29" s="2">
         <f t="shared" si="10"/>
-        <v>1.1600128733235332E-7</v>
+        <v>-0.27470589261336259</v>
       </c>
       <c r="AN29" s="2">
         <f t="shared" si="11"/>
-        <v>-3.572182196984661E-8</v>
+        <v>0.55033891122873335</v>
       </c>
       <c r="AO29" s="2">
         <f t="shared" si="12"/>
@@ -25966,7 +25966,7 @@
       </c>
       <c r="K30" s="10">
         <f>$C$5 - $C$16 - SUM(K15:K29)</f>
-        <v>-1.3627336804802326E-3</v>
+        <v>6.2521201762137935E-3</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>7</v>
@@ -25976,42 +25976,42 @@
       </c>
       <c r="O30" s="6">
         <f xml:space="preserve"> 1/$C$77 * LN( EXP($C$77 * O28) + EXP($C$77 * O29) )</f>
-        <v>1.1734248034243249</v>
+        <v>1.1773568675750621</v>
       </c>
       <c r="U30" s="2">
         <v>26</v>
       </c>
       <c r="V30" s="2">
         <f>IF(AB29&gt;0, Z29, V29)</f>
-        <v>0.97137121856212616</v>
+        <v>0.96830447018146515</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" si="0"/>
-        <v>1.2398762572196631E-8</v>
+        <v>7.3313565218668941E-9</v>
       </c>
       <c r="X30" s="2">
         <f t="shared" si="8"/>
-        <v>0.97137123346328735</v>
+        <v>0.96830448508262634</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="1"/>
-        <v>-2.803121290639865E-9</v>
+        <v>-7.8808310988165431E-9</v>
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="3"/>
-        <v>0.97137122601270676</v>
+        <v>0.96830447763204575</v>
       </c>
       <c r="AA30" s="2">
         <f t="shared" si="2"/>
-        <v>4.7978206962895342E-9</v>
+        <v>-2.7473734398597571E-10</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="4"/>
-        <v>5.9487039677265057E-17</v>
+        <v>-2.0141974186319714E-18</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="5"/>
-        <v>-1.3448873342441775E-17</v>
+        <v>2.1651586044909356E-18</v>
       </c>
       <c r="AD30" s="2">
         <f t="shared" si="6"/>
@@ -26022,32 +26022,32 @@
       </c>
       <c r="AG30" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9250656366348</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH30" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI30" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2336815595627</v>
       </c>
       <c r="AJ30" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK30" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9252071976662</v>
+        <v>2339.2335399985313</v>
       </c>
       <c r="AL30" s="2">
-        <v>-3.4700538481047261E-4</v>
+        <v>0.74184859479078114</v>
       </c>
       <c r="AM30" s="2">
         <f t="shared" si="10"/>
-        <v>1.4406401720266274E-7</v>
+        <v>-0.2747311540444427</v>
       </c>
       <c r="AN30" s="2">
         <f t="shared" si="11"/>
-        <v>-4.4363552277054169E-8</v>
+        <v>0.55038951934763636</v>
       </c>
       <c r="AO30" s="2">
         <f t="shared" si="12"/>
@@ -26061,11 +26061,11 @@
       <c r="C31" s="17">
         <v>0.75</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
       <c r="J31" s="6" t="s">
         <v>55</v>
       </c>
@@ -26078,35 +26078,35 @@
       </c>
       <c r="V31" s="2">
         <f t="shared" si="7"/>
-        <v>0.97137122601270676</v>
+        <v>0.96830447018146515</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="0"/>
-        <v>4.7978206962895342E-9</v>
+        <v>7.3313565218668941E-9</v>
       </c>
       <c r="X31" s="2">
         <f t="shared" si="8"/>
-        <v>0.97137123346328735</v>
+        <v>0.96830447763204575</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="1"/>
-        <v>-2.803121290639865E-9</v>
+        <v>-2.7473734398597571E-10</v>
       </c>
       <c r="Z31" s="2">
         <f t="shared" si="3"/>
-        <v>0.97137122973799706</v>
+        <v>0.96830447390675545</v>
       </c>
       <c r="AA31" s="2">
         <f t="shared" si="2"/>
-        <v>9.9734964731368336E-10</v>
+        <v>3.5283096444516104E-9</v>
       </c>
       <c r="AB31" s="2">
         <f t="shared" si="4"/>
-        <v>4.7851047793186577E-18</v>
+        <v>2.5867295923016177E-17</v>
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="5"/>
-        <v>-2.7956920305971463E-18</v>
+        <v>-9.6935842047673776E-19</v>
       </c>
       <c r="AD31" s="2">
         <f t="shared" si="6"/>
@@ -26117,32 +26117,32 @@
       </c>
       <c r="AG31" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9252071976662</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH31" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI31" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2335399985313</v>
       </c>
       <c r="AJ31" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK31" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9252779781818</v>
+        <v>2339.2334692180157</v>
       </c>
       <c r="AL31" s="2">
-        <v>-3.8108451008156408E-4</v>
+        <v>0.74188270114609622</v>
       </c>
       <c r="AM31" s="2">
         <f t="shared" si="10"/>
-        <v>1.5821243075534503E-7</v>
+        <v>-0.27474378475968803</v>
       </c>
       <c r="AN31" s="2">
         <f t="shared" si="11"/>
-        <v>-4.8720461770969078E-8</v>
+        <v>0.55041482340649739</v>
       </c>
       <c r="AO31" s="2">
         <f t="shared" si="12"/>
@@ -26174,35 +26174,35 @@
       </c>
       <c r="V32" s="2">
         <f t="shared" si="7"/>
-        <v>0.97137122973799706</v>
+        <v>0.96830447390675545</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="0"/>
-        <v>9.9734964731368336E-10</v>
+        <v>3.5283096444516104E-9</v>
       </c>
       <c r="X32" s="2">
         <f t="shared" si="8"/>
-        <v>0.97137123346328735</v>
+        <v>0.96830447763204575</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" si="1"/>
-        <v>-2.803121290639865E-9</v>
+        <v>-2.7473734398597571E-10</v>
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="3"/>
-        <v>0.9713712316006422</v>
+        <v>0.9683044757694006</v>
       </c>
       <c r="AA32" s="2">
         <f t="shared" si="2"/>
-        <v>-9.0288576615193961E-10</v>
+        <v>1.6267861502328174E-9</v>
       </c>
       <c r="AB32" s="2">
         <f t="shared" si="4"/>
-        <v>-9.0049280043618176E-19</v>
+        <v>5.739805263326756E-18</v>
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="5"/>
-        <v>2.5308983141161883E-18</v>
+        <v>-4.4693890614813471E-19</v>
       </c>
       <c r="AD32" s="2">
         <f t="shared" si="6"/>
@@ -26213,32 +26213,32 @@
       </c>
       <c r="AG32" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9252779781818</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH32" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI32" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2334692180157</v>
       </c>
       <c r="AJ32" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK32" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9253133684397</v>
+        <v>2339.2334338277578</v>
       </c>
       <c r="AL32" s="2">
-        <v>-3.9812407294448349E-4</v>
+        <v>0.74189918581305392</v>
       </c>
       <c r="AM32" s="2">
         <f t="shared" si="10"/>
-        <v>1.6528663762608345E-7</v>
+        <v>-0.27474988957893165</v>
       </c>
       <c r="AN32" s="2">
         <f t="shared" si="11"/>
-        <v>-5.0898916546995545E-8</v>
+        <v>0.55042705364860767</v>
       </c>
       <c r="AO32" s="2">
         <f t="shared" si="12"/>
@@ -26251,7 +26251,7 @@
       </c>
       <c r="G33" s="25">
         <f xml:space="preserve"> G20</f>
-        <v>107.68869659461498</v>
+        <v>107.79022508106384</v>
       </c>
       <c r="H33" s="25" t="s">
         <v>101</v>
@@ -26266,35 +26266,35 @@
       </c>
       <c r="V33" s="2">
         <f t="shared" si="7"/>
-        <v>0.97137122973799706</v>
+        <v>0.9683044757694006</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="0"/>
-        <v>9.9734964731368336E-10</v>
+        <v>1.6267861502328174E-9</v>
       </c>
       <c r="X33" s="2">
         <f t="shared" si="8"/>
-        <v>0.9713712316006422</v>
+        <v>0.96830447763204575</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="1"/>
-        <v>-9.0288576615193961E-10</v>
+        <v>-2.7473734398597571E-10</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="3"/>
-        <v>0.97137123066931963</v>
+        <v>0.96830447670072317</v>
       </c>
       <c r="AA33" s="2">
         <f t="shared" si="2"/>
-        <v>4.7231885069720647E-11</v>
+        <v>6.7602445863457206E-10</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="4"/>
-        <v>4.7106703916246314E-20</v>
+        <v>1.09974722652536E-18</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="5"/>
-        <v>-4.2644996737975084E-20</v>
+        <v>-1.8572916423481943E-19</v>
       </c>
       <c r="AD33" s="2">
         <f t="shared" si="6"/>
@@ -26305,32 +26305,32 @@
       </c>
       <c r="AG33" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9253133684397</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH33" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI33" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2334338277578</v>
       </c>
       <c r="AJ33" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK33" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9253310635686</v>
+        <v>2339.2334161326289</v>
       </c>
       <c r="AL33" s="2">
-        <v>-4.0664385483069054E-4</v>
+        <v>0.74190771240205322</v>
       </c>
       <c r="AM33" s="2">
         <f t="shared" si="10"/>
-        <v>1.6882374125024722E-7</v>
+        <v>-0.27475304725780614</v>
       </c>
       <c r="AN33" s="2">
         <f t="shared" si="11"/>
-        <v>-5.1988143993146804E-8</v>
+        <v>0.55043337966344941</v>
       </c>
       <c r="AO33" s="2">
         <f t="shared" si="12"/>
@@ -26338,11 +26338,11 @@
       </c>
     </row>
     <row r="34" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
       <c r="J34" s="6" t="s">
         <v>57</v>
       </c>
@@ -26358,35 +26358,35 @@
       </c>
       <c r="V34" s="2">
         <f t="shared" si="7"/>
-        <v>0.97137123066931963</v>
+        <v>0.96830447670072317</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="0"/>
-        <v>4.7231885069720647E-11</v>
+        <v>6.7602445863457206E-10</v>
       </c>
       <c r="X34" s="2">
         <f t="shared" si="8"/>
-        <v>0.9713712316006422</v>
+        <v>0.96830447763204575</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="1"/>
-        <v>-9.0288576615193961E-10</v>
+        <v>-2.7473734398597571E-10</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="3"/>
-        <v>0.97137123113498092</v>
+        <v>0.96830447716638446</v>
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="2"/>
-        <v>-4.2782699605226071E-10</v>
+        <v>2.006436128354494E-10</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="4"/>
-        <v>-2.0207075507264207E-20</v>
+        <v>1.3563998974556936E-19</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="5"/>
-        <v>3.8627890511112825E-19</v>
+        <v>-5.5124293278161794E-20</v>
       </c>
       <c r="AD34" s="2">
         <f t="shared" si="6"/>
@@ -26397,32 +26397,32 @@
       </c>
       <c r="AG34" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9253310635686</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH34" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI34" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2334161326289</v>
       </c>
       <c r="AJ34" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK34" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9253399111331</v>
+        <v>2339.2334072850645</v>
       </c>
       <c r="AL34" s="2">
-        <v>-4.1090374475061253E-4</v>
+        <v>0.74191197569598444</v>
       </c>
       <c r="AM34" s="2">
         <f t="shared" si="10"/>
-        <v>1.7059229263754134E-7</v>
+        <v>-0.27475462609703288</v>
       </c>
       <c r="AN34" s="2">
         <f t="shared" si="11"/>
-        <v>-5.2532757585411876E-8</v>
+        <v>0.55043654267044861</v>
       </c>
       <c r="AO34" s="2">
         <f t="shared" si="12"/>
@@ -26441,7 +26441,7 @@
       </c>
       <c r="K35" s="6">
         <f>ROUND(K15/$C$5 * 100, 2)</f>
-        <v>26.7</v>
+        <v>26.71</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>58</v>
@@ -26451,32 +26451,32 @@
       </c>
       <c r="AG35" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9253399111331</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH35" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI35" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2334072850645</v>
       </c>
       <c r="AJ35" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK35" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9253443349153</v>
+        <v>2339.2334028612822</v>
       </c>
       <c r="AL35" s="2">
-        <v>-4.1303369039269455E-4</v>
+        <v>0.74191410734374585</v>
       </c>
       <c r="AM35" s="2">
         <f t="shared" si="10"/>
-        <v>1.7147656861438025E-7</v>
+        <v>-0.27475541551694094</v>
       </c>
       <c r="AN35" s="2">
         <f t="shared" si="11"/>
-        <v>-5.280506446875145E-8</v>
+        <v>0.55043812417453852</v>
       </c>
       <c r="AO35" s="2">
         <f t="shared" si="12"/>
@@ -26508,32 +26508,32 @@
       </c>
       <c r="AG36" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9253443349153</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH36" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI36" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2334028612822</v>
       </c>
       <c r="AJ36" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK36" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9253465468064</v>
+        <v>2339.2334006493911</v>
       </c>
       <c r="AL36" s="2">
-        <v>-4.1409866344110924E-4</v>
+        <v>0.74191517316694444</v>
       </c>
       <c r="AM36" s="2">
         <f t="shared" si="10"/>
-        <v>1.7191870669719699E-7</v>
+        <v>-0.27475581022664242</v>
       </c>
       <c r="AN36" s="2">
         <f t="shared" si="11"/>
-        <v>-5.294121793949025E-8</v>
+        <v>0.55043891492607744</v>
       </c>
       <c r="AO36" s="2">
         <f t="shared" si="12"/>
@@ -26565,32 +26565,32 @@
       </c>
       <c r="AG37" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9253465468064</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH37" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI37" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2334006493911</v>
       </c>
       <c r="AJ37" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK37" s="2">
         <f t="shared" si="9"/>
-        <v>2339.925347652752</v>
+        <v>2339.2333995434456</v>
       </c>
       <c r="AL37" s="2">
-        <v>-4.1463114962425607E-4</v>
+        <v>0.74191570607854374</v>
       </c>
       <c r="AM37" s="2">
         <f t="shared" si="10"/>
-        <v>1.7213977559700942E-7</v>
+        <v>-0.2747560075814931</v>
       </c>
       <c r="AN37" s="2">
         <f t="shared" si="11"/>
-        <v>-5.3009294631256131E-8</v>
+        <v>0.5504393103018469</v>
       </c>
       <c r="AO37" s="2">
         <f t="shared" si="12"/>
@@ -26613,32 +26613,32 @@
       </c>
       <c r="AG38" s="2">
         <f t="shared" si="13"/>
-        <v>2339.925347652752</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH38" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI38" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2333995434456</v>
       </c>
       <c r="AJ38" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK38" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9253482057247</v>
+        <v>2339.2333989904728</v>
       </c>
       <c r="AL38" s="2">
-        <v>-4.1489739260214265E-4</v>
+        <v>0.7419159725350255</v>
       </c>
       <c r="AM38" s="2">
         <f t="shared" si="10"/>
-        <v>1.72250309999717E-7</v>
+        <v>-0.27475610625917107</v>
       </c>
       <c r="AN38" s="2">
         <f t="shared" si="11"/>
-        <v>-5.3043332962604565E-8</v>
+        <v>0.55043950799023778</v>
       </c>
       <c r="AO38" s="2">
         <f t="shared" si="12"/>
@@ -26646,17 +26646,17 @@
       </c>
     </row>
     <row r="39" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
       <c r="J39" s="10" t="s">
         <v>59</v>
       </c>
       <c r="K39" s="10">
         <f>SUM(K34:K38)</f>
-        <v>99.990000000000009</v>
+        <v>100</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>58</v>
@@ -26666,32 +26666,32 @@
       </c>
       <c r="AG39" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9253482057247</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH39" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI39" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2333989904728</v>
       </c>
       <c r="AJ39" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK39" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9253484822111</v>
+        <v>2339.2333987139864</v>
       </c>
       <c r="AL39" s="2">
-        <v>-4.1503051420477277E-4</v>
+        <v>0.74191610576281164</v>
       </c>
       <c r="AM39" s="2">
         <f t="shared" si="10"/>
-        <v>1.7230557724826944E-7</v>
+        <v>-0.27475615559784167</v>
       </c>
       <c r="AN39" s="2">
         <f t="shared" si="11"/>
-        <v>-5.3060352142813288E-8</v>
+        <v>0.55043960683409576</v>
       </c>
       <c r="AO39" s="2">
         <f t="shared" si="12"/>
@@ -26710,32 +26710,32 @@
       </c>
       <c r="AG40" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9253484822111</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH40" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI40" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2333987139864</v>
       </c>
       <c r="AJ40" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK40" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9253486204543</v>
+        <v>2339.2333985757432</v>
       </c>
       <c r="AL40" s="2">
-        <v>-4.1509707534714835E-4</v>
+        <v>0.74191617237715946</v>
       </c>
       <c r="AM40" s="2">
         <f t="shared" si="10"/>
-        <v>1.7233321101414157E-7</v>
+        <v>-0.27475618026734533</v>
       </c>
       <c r="AN40" s="2">
         <f t="shared" si="11"/>
-        <v>-5.3068861776521169E-8</v>
+        <v>0.55043965625636215</v>
       </c>
       <c r="AO40" s="2">
         <f t="shared" si="12"/>
@@ -26750,42 +26750,42 @@
         <f>IF(C40="wheeled",0.0325,0.014)</f>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="J41" s="30" t="s">
+      <c r="J41" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
       <c r="AG41" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9253486204543</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH41" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI41" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2333985757432</v>
       </c>
       <c r="AJ41" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK41" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9253486895759</v>
+        <v>2339.2333985066216</v>
       </c>
       <c r="AL41" s="2">
-        <v>-4.1513035557727562E-4</v>
+        <v>0.74191620568353756</v>
       </c>
       <c r="AM41" s="2">
         <f t="shared" si="10"/>
-        <v>1.7234702775548173E-7</v>
+        <v>-0.27475619260180251</v>
       </c>
       <c r="AN41" s="2">
         <f t="shared" si="11"/>
-        <v>-5.307311654977159E-8</v>
+        <v>0.55043968096690499</v>
       </c>
       <c r="AO41" s="2">
         <f t="shared" si="12"/>
@@ -26817,32 +26817,32 @@
       </c>
       <c r="AG42" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9253486895759</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH42" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI42" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2333985066216</v>
       </c>
       <c r="AJ42" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK42" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9253487241367</v>
+        <v>2339.2333984720608</v>
       </c>
       <c r="AL42" s="2">
-        <v>-4.1514699591971294E-4</v>
+        <v>0.74191622233752241</v>
       </c>
       <c r="AM42" s="2">
         <f t="shared" si="10"/>
-        <v>1.7235393622054908E-7</v>
+        <v>-0.27475619876932578</v>
       </c>
       <c r="AN42" s="2">
         <f t="shared" si="11"/>
-        <v>-5.3075243965465814E-8</v>
+        <v>0.55043969332276677</v>
       </c>
       <c r="AO42" s="2">
         <f t="shared" si="12"/>
@@ -26861,7 +26861,7 @@
       </c>
       <c r="K43" s="6">
         <f>ROUND(K15, 2)</f>
-        <v>624.84</v>
+        <v>625.05999999999995</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>7</v>
@@ -26871,32 +26871,32 @@
       </c>
       <c r="AG43" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9253487241367</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH43" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI43" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2333984720608</v>
       </c>
       <c r="AJ43" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK43" s="2">
         <f t="shared" si="9"/>
-        <v>2339.9253487414171</v>
+        <v>2339.2333984547804</v>
       </c>
       <c r="AL43" s="2">
-        <v>-4.1515531597724475E-4</v>
+        <v>0.74191623066326429</v>
       </c>
       <c r="AM43" s="2">
         <f t="shared" si="10"/>
-        <v>1.723573904058841E-7</v>
+        <v>-0.27475620185262428</v>
       </c>
       <c r="AN43" s="2">
         <f t="shared" si="11"/>
-        <v>-5.3076307658778419E-8</v>
+        <v>0.5504396994997699</v>
       </c>
       <c r="AO43" s="2">
         <f t="shared" si="12"/>
@@ -26909,7 +26909,7 @@
       </c>
       <c r="K44" s="6">
         <f>ROUND(SUM(K16:K19), 2)</f>
-        <v>338.93</v>
+        <v>338.81</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>7</v>
@@ -26919,32 +26919,32 @@
       </c>
       <c r="AG44" s="2">
         <f t="shared" si="13"/>
-        <v>2339.9253487414171</v>
+        <v>2339.2333984375</v>
       </c>
       <c r="AH44" s="2">
-        <v>-4.151636358074029E-4</v>
+        <v>-0.3703331865472137</v>
       </c>
       <c r="AI44" s="2">
         <f t="shared" si="14"/>
-        <v>2339.9253487586975</v>
+        <v>2339.2333984547804</v>
       </c>
       <c r="AJ44" s="2">
-        <v>1.2784686987288296E-4</v>
+        <v>0.74191623899059778</v>
       </c>
       <c r="AK44" s="5">
         <f t="shared" si="9"/>
-        <v>2339.9253487500573</v>
+        <v>2339.2333984461402</v>
       </c>
       <c r="AL44" s="2">
-        <v>-4.1515947577863699E-4</v>
+        <v>0.74191623482761315</v>
       </c>
       <c r="AM44" s="2">
         <f t="shared" si="10"/>
-        <v>1.7235911740415435E-7</v>
+        <v>-0.27475620339482087</v>
       </c>
       <c r="AN44" s="2">
         <f t="shared" si="11"/>
-        <v>-5.3076839476365709E-8</v>
+        <v>0.55043970258936792</v>
       </c>
       <c r="AO44" s="2">
         <f t="shared" si="12"/>
@@ -26952,17 +26952,17 @@
       </c>
     </row>
     <row r="45" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
       <c r="J45" s="20" t="s">
         <v>69</v>
       </c>
       <c r="K45" s="6">
         <f>ROUND(SUM(K20:K25), 2)</f>
-        <v>663.16</v>
+        <v>663.13</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>7</v>
@@ -26992,18 +26992,18 @@
       </c>
       <c r="K47" s="10">
         <f>SUM(K42:K46)</f>
-        <v>2339.9300000000003</v>
+        <v>2340</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
@@ -27038,11 +27038,11 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
@@ -27088,11 +27088,11 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
@@ -27122,11 +27122,11 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
@@ -27173,11 +27173,11 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
@@ -27224,11 +27224,11 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
@@ -27275,11 +27275,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B70:D70"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="B15:D15"/>
@@ -27292,12 +27293,11 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FALSE">
